--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>287515.9889618768</v>
+        <v>285782.5078482337</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6049179.212228711</v>
+        <v>6049179.21222871</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303.3026304363736</v>
+        <v>253.9120373529578</v>
       </c>
       <c r="C11" t="n">
         <v>285.8416805439006</v>
       </c>
       <c r="D11" t="n">
-        <v>275.251830393576</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>237.1174783472789</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>327.4448345146045</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>333.0902356170842</v>
       </c>
       <c r="H11" t="n">
-        <v>231.5596978048557</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>23.81896975173335</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.21019719500372</v>
+        <v>66.21019719500376</v>
       </c>
       <c r="T11" t="n">
-        <v>131.4895384249673</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U11" t="n">
-        <v>171.691938427054</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>248.3210472430279</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X11" t="n">
-        <v>290.299889451362</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="12">
@@ -1452,22 +1452,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>68.01385433753178</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>131.795991043232</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>56.42418423419249</v>
+        <v>135.8553954612995</v>
       </c>
       <c r="H12" t="n">
         <v>97.863321483828</v>
       </c>
       <c r="I12" t="n">
-        <v>38.16086372859611</v>
+        <v>12.31177431642748</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S12" t="n">
         <v>144.0419631757947</v>
       </c>
       <c r="T12" t="n">
-        <v>114.7353427130814</v>
+        <v>114.7353427130815</v>
       </c>
       <c r="U12" t="n">
-        <v>225.843479337428</v>
+        <v>146.4122681103211</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>172.2637719338127</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.4007689548303</v>
+        <v>100.4007689548304</v>
       </c>
       <c r="C13" t="n">
-        <v>87.81560987152086</v>
+        <v>87.81560987152089</v>
       </c>
       <c r="D13" t="n">
-        <v>69.18426179110538</v>
+        <v>69.18426179110541</v>
       </c>
       <c r="E13" t="n">
-        <v>67.0027514194622</v>
+        <v>67.00275141946223</v>
       </c>
       <c r="F13" t="n">
-        <v>65.98983679582427</v>
+        <v>65.9898367958243</v>
       </c>
       <c r="G13" t="n">
-        <v>87.31217688571731</v>
+        <v>87.31217688571734</v>
       </c>
       <c r="H13" t="n">
-        <v>71.70374093278242</v>
+        <v>71.70374093278247</v>
       </c>
       <c r="I13" t="n">
-        <v>38.50079242234359</v>
+        <v>38.50079242234362</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.76594105089779</v>
+        <v>41.76594105089783</v>
       </c>
       <c r="S13" t="n">
         <v>122.8432739200354</v>
@@ -1585,16 +1585,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V13" t="n">
-        <v>172.706432096721</v>
+        <v>172.7064320967211</v>
       </c>
       <c r="W13" t="n">
-        <v>207.091787109484</v>
+        <v>207.0917871094841</v>
       </c>
       <c r="X13" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.1534421249878</v>
+        <v>139.1534421249879</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>303.3026304363735</v>
+        <v>303.3026304363737</v>
       </c>
       <c r="C14" t="n">
-        <v>285.8416805439005</v>
+        <v>285.8416805439007</v>
       </c>
       <c r="D14" t="n">
-        <v>275.2518303935759</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F14" t="n">
-        <v>327.4448345146044</v>
+        <v>327.4448345146046</v>
       </c>
       <c r="G14" t="n">
-        <v>141.4868530981176</v>
+        <v>333.0902356170843</v>
       </c>
       <c r="H14" t="n">
-        <v>231.5596978048557</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>23.81896975173328</v>
+        <v>23.81896975173346</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.21019719500367</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>131.4895384249673</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>171.691938427054</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>112.2909033910287</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.8067274289465</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H15" t="n">
-        <v>97.863321483828</v>
+        <v>18.43211025672114</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.763751642754528</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>144.0419631757947</v>
@@ -1743,16 +1743,16 @@
         <v>225.843479337428</v>
       </c>
       <c r="V15" t="n">
-        <v>165.6811502387457</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>172.2637719338126</v>
+        <v>192.3392978929948</v>
       </c>
       <c r="X15" t="n">
-        <v>126.3417739763704</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>126.2514845501975</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.4007689548303</v>
+        <v>100.4007689548304</v>
       </c>
       <c r="C16" t="n">
-        <v>87.81560987152081</v>
+        <v>87.81560987152096</v>
       </c>
       <c r="D16" t="n">
-        <v>69.18426179110533</v>
+        <v>69.18426179110548</v>
       </c>
       <c r="E16" t="n">
-        <v>67.00275141946214</v>
+        <v>67.0027514194623</v>
       </c>
       <c r="F16" t="n">
-        <v>65.98983679582422</v>
+        <v>65.98983679582437</v>
       </c>
       <c r="G16" t="n">
-        <v>87.31217688571725</v>
+        <v>87.31217688571741</v>
       </c>
       <c r="H16" t="n">
-        <v>71.70374093278238</v>
+        <v>71.70374093278254</v>
       </c>
       <c r="I16" t="n">
-        <v>38.50079242234353</v>
+        <v>38.50079242234369</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.76594105089774</v>
+        <v>41.7659410508979</v>
       </c>
       <c r="S16" t="n">
-        <v>122.8432739200353</v>
+        <v>122.8432739200355</v>
       </c>
       <c r="T16" t="n">
-        <v>143.1837610607362</v>
+        <v>143.1837610607364</v>
       </c>
       <c r="U16" t="n">
-        <v>206.8197676978038</v>
+        <v>206.8197676978039</v>
       </c>
       <c r="V16" t="n">
-        <v>172.706432096721</v>
+        <v>172.7064320967211</v>
       </c>
       <c r="W16" t="n">
-        <v>207.091787109484</v>
+        <v>207.0917871094841</v>
       </c>
       <c r="X16" t="n">
-        <v>146.2784441619301</v>
+        <v>146.2784441619303</v>
       </c>
       <c r="Y16" t="n">
-        <v>139.1534421249877</v>
+        <v>139.1534421249879</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.8714192092666</v>
+        <v>223.8714192092667</v>
       </c>
       <c r="C17" t="n">
-        <v>206.4104693167936</v>
+        <v>206.4104693167937</v>
       </c>
       <c r="D17" t="n">
-        <v>195.820619166469</v>
+        <v>195.8206191664691</v>
       </c>
       <c r="E17" t="n">
-        <v>43.16962496835868</v>
+        <v>223.0679476180479</v>
       </c>
       <c r="F17" t="n">
-        <v>248.0136232874975</v>
+        <v>248.0136232874976</v>
       </c>
       <c r="G17" t="n">
-        <v>253.6590243899772</v>
+        <v>253.6590243899773</v>
       </c>
       <c r="H17" t="n">
         <v>152.1284865777488</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.05832719786039</v>
+        <v>52.05832719786049</v>
       </c>
       <c r="U17" t="n">
-        <v>92.26072719994704</v>
+        <v>92.26072719994713</v>
       </c>
       <c r="V17" t="n">
         <v>168.889836015921</v>
       </c>
       <c r="W17" t="n">
-        <v>190.3785462631991</v>
+        <v>190.3785462631992</v>
       </c>
       <c r="X17" t="n">
-        <v>210.8686782242551</v>
+        <v>30.97035557456694</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.3755162018396</v>
+        <v>227.3755162018397</v>
       </c>
     </row>
     <row r="18">
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>159.1162044944196</v>
+        <v>95.76014149236764</v>
       </c>
       <c r="C18" t="n">
-        <v>13.8460765341018</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1938,10 +1938,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I18" t="n">
-        <v>38.16086372859611</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.763751642754528</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>144.0419631757947</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.96955772772336</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>122.8449113128276</v>
+        <v>8.384398644413977</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.880965658610341</v>
+        <v>7.880965658610426</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>91.78510342476612</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S19" t="n">
-        <v>43.4120626929284</v>
+        <v>43.41206269292849</v>
       </c>
       <c r="T19" t="n">
-        <v>63.75254983362934</v>
+        <v>63.75254983362942</v>
       </c>
       <c r="U19" t="n">
-        <v>127.3885564706969</v>
+        <v>127.388556470697</v>
       </c>
       <c r="V19" t="n">
-        <v>93.27522086961406</v>
+        <v>93.27522086961415</v>
       </c>
       <c r="W19" t="n">
         <v>127.6605758823771</v>
       </c>
       <c r="X19" t="n">
-        <v>66.84723293482321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.72223089788085</v>
+        <v>59.72223089788093</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.8714192092666</v>
+        <v>223.8714192092667</v>
       </c>
       <c r="C20" t="n">
-        <v>206.4104693167936</v>
+        <v>206.4104693167937</v>
       </c>
       <c r="D20" t="n">
-        <v>15.92229651677909</v>
+        <v>195.8206191664691</v>
       </c>
       <c r="E20" t="n">
-        <v>223.0679476180478</v>
+        <v>223.0679476180479</v>
       </c>
       <c r="F20" t="n">
-        <v>248.0136232874975</v>
+        <v>248.0136232874976</v>
       </c>
       <c r="G20" t="n">
-        <v>253.6590243899772</v>
+        <v>253.6590243899773</v>
       </c>
       <c r="H20" t="n">
         <v>152.1284865777488</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>52.05832719786039</v>
+        <v>52.05832719786049</v>
       </c>
       <c r="U20" t="n">
-        <v>92.26072719994704</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>168.889836015921</v>
       </c>
       <c r="W20" t="n">
-        <v>190.3785462631991</v>
+        <v>102.7409508134558</v>
       </c>
       <c r="X20" t="n">
-        <v>210.8686782242551</v>
+        <v>210.8686782242552</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.3755162018396</v>
+        <v>227.3755162018397</v>
       </c>
     </row>
     <row r="21">
@@ -2166,7 +2166,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T21" t="n">
-        <v>119.9904093938443</v>
+        <v>194.1665539401884</v>
       </c>
       <c r="U21" t="n">
         <v>225.843479337428</v>
@@ -2223,7 +2223,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>137.4362062939852</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.96955772772336</v>
+        <v>20.96955772772344</v>
       </c>
       <c r="C22" t="n">
-        <v>98.62101556790103</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>54.11983324855698</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.880965658610341</v>
+        <v>166.7433881128243</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.4120626929284</v>
+        <v>43.41206269292849</v>
       </c>
       <c r="T22" t="n">
-        <v>63.75254983362934</v>
+        <v>63.75254983362942</v>
       </c>
       <c r="U22" t="n">
-        <v>127.3885564706969</v>
+        <v>127.388556470697</v>
       </c>
       <c r="V22" t="n">
-        <v>93.27522086961406</v>
+        <v>93.27522086961415</v>
       </c>
       <c r="W22" t="n">
         <v>127.6605758823771</v>
       </c>
       <c r="X22" t="n">
-        <v>66.84723293482321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.72223089788085</v>
+        <v>59.72223089788093</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.8714192092666</v>
+        <v>223.8714192092667</v>
       </c>
       <c r="C23" t="n">
-        <v>206.4104693167936</v>
+        <v>206.4104693167937</v>
       </c>
       <c r="D23" t="n">
-        <v>195.820619166469</v>
+        <v>195.8206191664691</v>
       </c>
       <c r="E23" t="n">
-        <v>223.0679476180478</v>
+        <v>223.0679476180479</v>
       </c>
       <c r="F23" t="n">
-        <v>248.0136232874975</v>
+        <v>248.0136232874976</v>
       </c>
       <c r="G23" t="n">
-        <v>253.6590243899772</v>
+        <v>253.6590243899773</v>
       </c>
       <c r="H23" t="n">
         <v>152.1284865777488</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>52.05832719786039</v>
+        <v>52.05832719786049</v>
       </c>
       <c r="U23" t="n">
-        <v>92.26072719994704</v>
+        <v>92.26072719994713</v>
       </c>
       <c r="V23" t="n">
         <v>168.889836015921</v>
       </c>
       <c r="W23" t="n">
-        <v>190.3785462631991</v>
+        <v>190.3785462631992</v>
       </c>
       <c r="X23" t="n">
-        <v>210.8686782242551</v>
+        <v>210.8686782242552</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.3755162018396</v>
+        <v>227.3755162018397</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>82.28878320606746</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S24" t="n">
         <v>144.0419631757947</v>
       </c>
       <c r="T24" t="n">
-        <v>117.6859051391433</v>
+        <v>194.1665539401884</v>
       </c>
       <c r="U24" t="n">
         <v>225.843479337428</v>
@@ -2473,31 +2473,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.96955772772336</v>
+        <v>20.96955772772344</v>
       </c>
       <c r="C25" t="n">
-        <v>93.46653651758575</v>
+        <v>8.384398644413977</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.880965658610341</v>
+        <v>7.880965658610426</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J25" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.4120626929284</v>
+        <v>202.2744851471423</v>
       </c>
       <c r="T25" t="n">
-        <v>63.75254983362934</v>
+        <v>63.75254983362942</v>
       </c>
       <c r="U25" t="n">
-        <v>127.3885564706969</v>
+        <v>286.2509789249108</v>
       </c>
       <c r="V25" t="n">
-        <v>93.27522086961406</v>
+        <v>93.27522086961415</v>
       </c>
       <c r="W25" t="n">
-        <v>127.6605758823771</v>
+        <v>217.5563488853824</v>
       </c>
       <c r="X25" t="n">
-        <v>66.84723293482321</v>
+        <v>66.8472329348233</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.72223089788085</v>
+        <v>59.72223089788093</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2561,19 @@
         <v>275.251830393576</v>
       </c>
       <c r="E26" t="n">
-        <v>302.4991588451548</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F26" t="n">
         <v>327.4448345146045</v>
       </c>
       <c r="G26" t="n">
-        <v>333.0902356170841</v>
+        <v>333.0902356170842</v>
       </c>
       <c r="H26" t="n">
-        <v>231.5596978048557</v>
+        <v>231.5596978048558</v>
       </c>
       <c r="I26" t="n">
-        <v>23.81896975173333</v>
+        <v>23.81896975173339</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.2101971950037</v>
+        <v>66.21019719500376</v>
       </c>
       <c r="T26" t="n">
-        <v>131.4895384249673</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U26" t="n">
-        <v>171.691938427054</v>
+        <v>171.6919384270541</v>
       </c>
       <c r="V26" t="n">
-        <v>248.3210472430279</v>
+        <v>248.321047243028</v>
       </c>
       <c r="W26" t="n">
-        <v>269.809757490306</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X26" t="n">
-        <v>290.299889451362</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.8067274289466</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.4007689548303</v>
+        <v>100.4007689548304</v>
       </c>
       <c r="C28" t="n">
-        <v>87.81560987152085</v>
+        <v>87.81560987152091</v>
       </c>
       <c r="D28" t="n">
-        <v>69.18426179110537</v>
+        <v>69.18426179110543</v>
       </c>
       <c r="E28" t="n">
-        <v>67.00275141946219</v>
+        <v>67.00275141946224</v>
       </c>
       <c r="F28" t="n">
-        <v>65.98983679582426</v>
+        <v>65.98983679582432</v>
       </c>
       <c r="G28" t="n">
-        <v>87.31217688571729</v>
+        <v>87.31217688571735</v>
       </c>
       <c r="H28" t="n">
-        <v>71.70374093278242</v>
+        <v>71.70374093278248</v>
       </c>
       <c r="I28" t="n">
-        <v>38.50079242234357</v>
+        <v>38.50079242234363</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76594105089778</v>
+        <v>41.76594105089784</v>
       </c>
       <c r="S28" t="n">
-        <v>122.8432739200361</v>
+        <v>122.8432739200354</v>
       </c>
       <c r="T28" t="n">
         <v>143.1837610607363</v>
@@ -2770,16 +2770,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V28" t="n">
-        <v>172.706432096721</v>
+        <v>172.7064320967211</v>
       </c>
       <c r="W28" t="n">
-        <v>207.091787109484</v>
+        <v>207.0917871094841</v>
       </c>
       <c r="X28" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.1534421249878</v>
+        <v>139.1534421249879</v>
       </c>
     </row>
     <row r="29">
@@ -2798,19 +2798,19 @@
         <v>275.251830393576</v>
       </c>
       <c r="E29" t="n">
-        <v>302.4991588451549</v>
+        <v>302.4991588451548</v>
       </c>
       <c r="F29" t="n">
         <v>327.4448345146045</v>
       </c>
       <c r="G29" t="n">
-        <v>333.0902356170842</v>
+        <v>333.0902356170841</v>
       </c>
       <c r="H29" t="n">
-        <v>231.5596978048558</v>
+        <v>231.5596978048557</v>
       </c>
       <c r="I29" t="n">
-        <v>23.81896975173339</v>
+        <v>23.81896975173335</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.21019719500376</v>
+        <v>66.21019719500373</v>
       </c>
       <c r="T29" t="n">
-        <v>131.4895384249674</v>
+        <v>131.4895384249673</v>
       </c>
       <c r="U29" t="n">
-        <v>171.6919384270541</v>
+        <v>171.691938427054</v>
       </c>
       <c r="V29" t="n">
-        <v>248.321047243028</v>
+        <v>248.3210472430279</v>
       </c>
       <c r="W29" t="n">
-        <v>269.8097574903061</v>
+        <v>269.809757490306</v>
       </c>
       <c r="X29" t="n">
-        <v>290.2998894513621</v>
+        <v>290.299889451362</v>
       </c>
       <c r="Y29" t="n">
-        <v>306.8067274289467</v>
+        <v>306.8067274289466</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S30" t="n">
         <v>144.0419631757947</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.4007689548304</v>
+        <v>100.4007689548303</v>
       </c>
       <c r="C31" t="n">
-        <v>87.81560987152091</v>
+        <v>87.81560987152085</v>
       </c>
       <c r="D31" t="n">
-        <v>69.18426179110543</v>
+        <v>69.18426179110537</v>
       </c>
       <c r="E31" t="n">
-        <v>67.00275141946224</v>
+        <v>67.00275141946219</v>
       </c>
       <c r="F31" t="n">
-        <v>65.98983679582432</v>
+        <v>65.98983679582426</v>
       </c>
       <c r="G31" t="n">
-        <v>87.31217688571735</v>
+        <v>87.31217688571729</v>
       </c>
       <c r="H31" t="n">
-        <v>71.70374093278248</v>
+        <v>71.70374093278242</v>
       </c>
       <c r="I31" t="n">
-        <v>38.50079242234363</v>
+        <v>38.50079242234358</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76594105089784</v>
+        <v>41.76594105089779</v>
       </c>
       <c r="S31" t="n">
         <v>122.8432739200354</v>
@@ -3007,16 +3007,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V31" t="n">
-        <v>172.7064320967211</v>
+        <v>172.706432096721</v>
       </c>
       <c r="W31" t="n">
-        <v>207.0917871094841</v>
+        <v>207.091787109484</v>
       </c>
       <c r="X31" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y31" t="n">
-        <v>139.1534421249879</v>
+        <v>139.1534421249878</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>303.3026304363735</v>
+        <v>303.3026304363736</v>
       </c>
       <c r="C32" t="n">
         <v>285.8416805439006</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2518303935759</v>
+        <v>275.251830393576</v>
       </c>
       <c r="E32" t="n">
-        <v>302.4991588451547</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F32" t="n">
-        <v>327.4448345146044</v>
+        <v>327.4448345146045</v>
       </c>
       <c r="G32" t="n">
-        <v>333.0902356170841</v>
+        <v>333.0902356170842</v>
       </c>
       <c r="H32" t="n">
         <v>231.5596978048557</v>
       </c>
       <c r="I32" t="n">
-        <v>23.81896975173331</v>
+        <v>23.81896975173338</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.21019719500367</v>
+        <v>66.21019719500376</v>
       </c>
       <c r="T32" t="n">
-        <v>131.4895384249673</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U32" t="n">
         <v>171.691938427054</v>
@@ -3089,10 +3089,10 @@
         <v>248.3210472430279</v>
       </c>
       <c r="W32" t="n">
-        <v>269.809757490306</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X32" t="n">
-        <v>290.299889451362</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y32" t="n">
         <v>306.8067274289466</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S33" t="n">
         <v>144.0419631757947</v>
@@ -3187,25 +3187,25 @@
         <v>100.4007689548303</v>
       </c>
       <c r="C34" t="n">
-        <v>87.81560987152082</v>
+        <v>87.81560987152088</v>
       </c>
       <c r="D34" t="n">
-        <v>69.18426179110534</v>
+        <v>69.1842617911054</v>
       </c>
       <c r="E34" t="n">
-        <v>67.00275141946216</v>
+        <v>67.00275141946221</v>
       </c>
       <c r="F34" t="n">
-        <v>65.98983679582423</v>
+        <v>65.98983679582429</v>
       </c>
       <c r="G34" t="n">
-        <v>87.31217688571726</v>
+        <v>87.31217688571732</v>
       </c>
       <c r="H34" t="n">
-        <v>71.7037409327824</v>
+        <v>71.70374093278245</v>
       </c>
       <c r="I34" t="n">
-        <v>38.50079242234354</v>
+        <v>38.50079242234361</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76594105089775</v>
+        <v>41.76594105089782</v>
       </c>
       <c r="S34" t="n">
-        <v>122.8432739200353</v>
+        <v>122.8432739200354</v>
       </c>
       <c r="T34" t="n">
         <v>143.1837610607363</v>
       </c>
       <c r="U34" t="n">
-        <v>206.8197676978038</v>
+        <v>206.8197676978039</v>
       </c>
       <c r="V34" t="n">
         <v>172.706432096721</v>
@@ -3250,7 +3250,7 @@
         <v>207.091787109484</v>
       </c>
       <c r="X34" t="n">
-        <v>146.2784441619301</v>
+        <v>146.2784441619302</v>
       </c>
       <c r="Y34" t="n">
         <v>139.1534421249878</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S36" t="n">
         <v>144.0419631757947</v>
@@ -3424,7 +3424,7 @@
         <v>34.19057175982661</v>
       </c>
       <c r="C37" t="n">
-        <v>114.4049145138089</v>
+        <v>144.00364970823</v>
       </c>
       <c r="D37" t="n">
         <v>2.97406459610167</v>
@@ -3436,16 +3436,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>21.10197969071359</v>
+        <v>21.1019796907136</v>
       </c>
       <c r="H37" t="n">
-        <v>151.1349521598894</v>
+        <v>5.493543737778719</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.154479050315288</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S37" t="n">
-        <v>202.2744851471423</v>
+        <v>56.63307672503166</v>
       </c>
       <c r="T37" t="n">
         <v>76.97356386573259</v>
@@ -3481,7 +3481,7 @@
         <v>140.6095705028001</v>
       </c>
       <c r="V37" t="n">
-        <v>106.4962349017173</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>140.8815899144803</v>
@@ -3503,19 +3503,19 @@
         <v>237.0924332413699</v>
       </c>
       <c r="C38" t="n">
-        <v>219.6314833488968</v>
+        <v>219.6314833488969</v>
       </c>
       <c r="D38" t="n">
-        <v>209.0416331985722</v>
+        <v>209.0416331985723</v>
       </c>
       <c r="E38" t="n">
         <v>236.2889616501511</v>
       </c>
       <c r="F38" t="n">
-        <v>261.2346373196007</v>
+        <v>261.2346373196008</v>
       </c>
       <c r="G38" t="n">
-        <v>266.8800384220804</v>
+        <v>266.8800384220805</v>
       </c>
       <c r="H38" t="n">
         <v>165.349500609852</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>65.27934122996362</v>
+        <v>65.27934122996365</v>
       </c>
       <c r="U38" t="n">
         <v>105.4817412320503</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S39" t="n">
         <v>144.0419631757947</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.19057175982658</v>
+        <v>34.19057175982661</v>
       </c>
       <c r="C40" t="n">
-        <v>21.60541267651712</v>
+        <v>21.60541267651715</v>
       </c>
       <c r="D40" t="n">
-        <v>2.974064596101641</v>
+        <v>2.97406459610167</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7925542244584562</v>
+        <v>0.7925542244584847</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7433881128243</v>
+        <v>21.1019796907136</v>
       </c>
       <c r="H40" t="n">
-        <v>151.1349521598894</v>
+        <v>5.493543737778719</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>97.9539808876074</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>56.63307672503163</v>
+        <v>56.63307672503166</v>
       </c>
       <c r="T40" t="n">
-        <v>76.97356386573256</v>
+        <v>76.97356386573259</v>
       </c>
       <c r="U40" t="n">
         <v>140.6095705028001</v>
@@ -3721,13 +3721,13 @@
         <v>106.4962349017173</v>
       </c>
       <c r="W40" t="n">
-        <v>140.8815899144803</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>80.06824696692644</v>
+        <v>205.7316326271936</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.94324492998408</v>
+        <v>72.9432449299841</v>
       </c>
     </row>
     <row r="41">
@@ -3898,25 +3898,25 @@
         <v>34.19057175982658</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>21.60541267651712</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>2.974064596101641</v>
       </c>
       <c r="E43" t="n">
-        <v>93.59205606175057</v>
+        <v>0.7925542244584562</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>21.10197969071357</v>
+        <v>166.7433881128243</v>
       </c>
       <c r="H43" t="n">
         <v>5.49354373777869</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>92.79950183729198</v>
       </c>
       <c r="J43" t="n">
         <v>5.154479050315302</v>
@@ -3952,7 +3952,7 @@
         <v>76.97356386573256</v>
       </c>
       <c r="U43" t="n">
-        <v>140.6095705028001</v>
+        <v>286.2509789249108</v>
       </c>
       <c r="V43" t="n">
         <v>106.4962349017173</v>
@@ -4138,19 +4138,19 @@
         <v>21.60541267651712</v>
       </c>
       <c r="D46" t="n">
-        <v>2.974064596101641</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0.7925542244584562</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.9539808876074</v>
       </c>
       <c r="G46" t="n">
         <v>21.10197969071357</v>
       </c>
       <c r="H46" t="n">
-        <v>5.49354373777869</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4192,13 +4192,13 @@
         <v>140.6095705028001</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>106.4962349017173</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>140.8815899144803</v>
       </c>
       <c r="X46" t="n">
-        <v>178.0222278545339</v>
+        <v>80.06824696692644</v>
       </c>
       <c r="Y46" t="n">
         <v>72.94324492998408</v>
@@ -5015,55 +5015,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1110.921419980314</v>
+        <v>1002.62555516642</v>
       </c>
       <c r="C11" t="n">
-        <v>822.1924497339494</v>
+        <v>713.8965849200553</v>
       </c>
       <c r="D11" t="n">
-        <v>544.1602978212463</v>
+        <v>713.8965849200553</v>
       </c>
       <c r="E11" t="n">
-        <v>304.6476934300556</v>
+        <v>713.8965849200553</v>
       </c>
       <c r="F11" t="n">
-        <v>304.6476934300556</v>
+        <v>383.1442268244951</v>
       </c>
       <c r="G11" t="n">
-        <v>304.6476934300556</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="H11" t="n">
-        <v>70.74900877868619</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="I11" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="J11" t="n">
-        <v>268.5576303040251</v>
+        <v>101.151981283672</v>
       </c>
       <c r="K11" t="n">
-        <v>400.9213749217364</v>
+        <v>233.5157259013833</v>
       </c>
       <c r="L11" t="n">
-        <v>602.0320663808823</v>
+        <v>434.6264173605291</v>
       </c>
       <c r="M11" t="n">
-        <v>857.4758979550204</v>
+        <v>1012.408279100104</v>
       </c>
       <c r="N11" t="n">
-        <v>1121.666886161165</v>
+        <v>1276.599267306248</v>
       </c>
       <c r="O11" t="n">
-        <v>1536.812018472638</v>
+        <v>1854.381129045823</v>
       </c>
       <c r="P11" t="n">
-        <v>2022.425618108813</v>
+        <v>2022.425618108814</v>
       </c>
       <c r="Q11" t="n">
-        <v>2309.87944779889</v>
+        <v>2309.879447798891</v>
       </c>
       <c r="R11" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S11" t="n">
         <v>2267.593181579086</v>
@@ -5072,19 +5072,19 @@
         <v>2134.775465998311</v>
       </c>
       <c r="U11" t="n">
-        <v>1961.349265566944</v>
+        <v>2134.775465998311</v>
       </c>
       <c r="V11" t="n">
-        <v>1710.51992491742</v>
+        <v>2134.775465998311</v>
       </c>
       <c r="W11" t="n">
-        <v>1710.51992491742</v>
+        <v>1862.240357422245</v>
       </c>
       <c r="X11" t="n">
-        <v>1417.287713350388</v>
+        <v>1569.008145855212</v>
       </c>
       <c r="Y11" t="n">
-        <v>1417.287713350388</v>
+        <v>1259.102360573448</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>763.8974496446929</v>
+        <v>924.3645430327881</v>
       </c>
       <c r="C12" t="n">
-        <v>589.4444203635659</v>
+        <v>749.9115137516611</v>
       </c>
       <c r="D12" t="n">
-        <v>520.7435573963621</v>
+        <v>600.9771040904099</v>
       </c>
       <c r="E12" t="n">
-        <v>387.6162937163298</v>
+        <v>441.7396490849544</v>
       </c>
       <c r="F12" t="n">
-        <v>241.0817357432148</v>
+        <v>295.2050911118394</v>
       </c>
       <c r="G12" t="n">
-        <v>184.0876102541314</v>
+        <v>157.9774189287086</v>
       </c>
       <c r="H12" t="n">
-        <v>85.23577037147686</v>
+        <v>59.12557904605401</v>
       </c>
       <c r="I12" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="J12" t="n">
-        <v>185.1392358768292</v>
+        <v>60.30911088982445</v>
       </c>
       <c r="K12" t="n">
-        <v>548.3928263393643</v>
+        <v>423.5627013523596</v>
       </c>
       <c r="L12" t="n">
-        <v>864.8383931310193</v>
+        <v>606.2744364430105</v>
       </c>
       <c r="M12" t="n">
-        <v>1097.411238198285</v>
+        <v>838.8472815102758</v>
       </c>
       <c r="N12" t="n">
-        <v>1350.548239348129</v>
+        <v>1416.629143249851</v>
       </c>
       <c r="O12" t="n">
         <v>1928.330101087704</v>
       </c>
       <c r="P12" t="n">
-        <v>2077.01975455116</v>
+        <v>2077.019754551161</v>
       </c>
       <c r="Q12" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R12" t="n">
         <v>2326.629995268227</v>
@@ -5151,19 +5151,19 @@
         <v>2065.238777198655</v>
       </c>
       <c r="U12" t="n">
-        <v>1837.114050595192</v>
+        <v>1917.34759728924</v>
       </c>
       <c r="V12" t="n">
-        <v>1601.961942363449</v>
+        <v>1682.195489057497</v>
       </c>
       <c r="W12" t="n">
-        <v>1347.724585635248</v>
+        <v>1508.191679023343</v>
       </c>
       <c r="X12" t="n">
-        <v>1139.873085429715</v>
+        <v>1300.34017881781</v>
       </c>
       <c r="Y12" t="n">
-        <v>932.112786664761</v>
+        <v>1092.579880052856</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>539.1229485433564</v>
+        <v>539.1229485433554</v>
       </c>
       <c r="C13" t="n">
-        <v>450.4203123094969</v>
+        <v>450.4203123094959</v>
       </c>
       <c r="D13" t="n">
-        <v>380.5372195912087</v>
+        <v>380.5372195912075</v>
       </c>
       <c r="E13" t="n">
-        <v>312.8576727028629</v>
+        <v>312.8576727028619</v>
       </c>
       <c r="F13" t="n">
-        <v>246.2012718990001</v>
+        <v>246.201271898999</v>
       </c>
       <c r="G13" t="n">
-        <v>158.0071538326181</v>
+        <v>158.0071538326179</v>
       </c>
       <c r="H13" t="n">
-        <v>85.5791326883935</v>
+        <v>85.57913268839354</v>
       </c>
       <c r="I13" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="J13" t="n">
         <v>120.2234082279187</v>
       </c>
       <c r="K13" t="n">
-        <v>320.3114555080078</v>
+        <v>320.311455508008</v>
       </c>
       <c r="L13" t="n">
         <v>609.8904447105128</v>
@@ -5221,28 +5221,28 @@
         <v>1832.298320439747</v>
       </c>
       <c r="R13" t="n">
-        <v>1790.110501196416</v>
+        <v>1790.110501196415</v>
       </c>
       <c r="S13" t="n">
-        <v>1666.026386125673</v>
+        <v>1666.026386125672</v>
       </c>
       <c r="T13" t="n">
-        <v>1521.396324448162</v>
+        <v>1521.396324448161</v>
       </c>
       <c r="U13" t="n">
-        <v>1312.487468187754</v>
+        <v>1312.487468187753</v>
       </c>
       <c r="V13" t="n">
-        <v>1138.036526675914</v>
+        <v>1138.036526675913</v>
       </c>
       <c r="W13" t="n">
-        <v>928.8529033330011</v>
+        <v>928.8529033330003</v>
       </c>
       <c r="X13" t="n">
-        <v>781.0968991290313</v>
+        <v>781.0968991290304</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.5378666795486</v>
+        <v>640.5378666795477</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1345.077186915104</v>
+        <v>1332.239826476408</v>
       </c>
       <c r="C14" t="n">
-        <v>1056.34821666874</v>
+        <v>1043.510856230044</v>
       </c>
       <c r="D14" t="n">
-        <v>778.3160647560372</v>
+        <v>1043.510856230044</v>
       </c>
       <c r="E14" t="n">
-        <v>778.3160647560372</v>
+        <v>737.9561503258468</v>
       </c>
       <c r="F14" t="n">
-        <v>447.5637066604772</v>
+        <v>407.2037922302866</v>
       </c>
       <c r="G14" t="n">
-        <v>304.6476934300555</v>
+        <v>70.74900877868636</v>
       </c>
       <c r="H14" t="n">
-        <v>70.74900877868613</v>
+        <v>70.74900877868636</v>
       </c>
       <c r="I14" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="J14" t="n">
-        <v>268.5576303040251</v>
+        <v>268.557630304025</v>
       </c>
       <c r="K14" t="n">
-        <v>721.8253333671895</v>
+        <v>721.8253333671894</v>
       </c>
       <c r="L14" t="n">
-        <v>922.9360248263354</v>
+        <v>1299.607195106764</v>
       </c>
       <c r="M14" t="n">
-        <v>1178.379856400473</v>
+        <v>1565.260794768375</v>
       </c>
       <c r="N14" t="n">
-        <v>1442.570844606618</v>
+        <v>1829.451782974519</v>
       </c>
       <c r="O14" t="n">
-        <v>1678.703641947811</v>
+        <v>2065.584580315712</v>
       </c>
       <c r="P14" t="n">
-        <v>2047.018338954669</v>
+        <v>2232.617458862119</v>
       </c>
       <c r="Q14" t="n">
-        <v>2334.472168644746</v>
+        <v>2309.879447798891</v>
       </c>
       <c r="R14" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S14" t="n">
-        <v>2267.593181579086</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="T14" t="n">
-        <v>2134.775465998311</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="U14" t="n">
-        <v>1961.349265566943</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="V14" t="n">
-        <v>1961.349265566943</v>
+        <v>2221.047013704314</v>
       </c>
       <c r="W14" t="n">
-        <v>1961.349265566943</v>
+        <v>1948.511905128247</v>
       </c>
       <c r="X14" t="n">
-        <v>1961.349265566943</v>
+        <v>1948.511905128247</v>
       </c>
       <c r="Y14" t="n">
-        <v>1651.443480285179</v>
+        <v>1638.606119846483</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>911.928407359629</v>
+        <v>831.6948606655818</v>
       </c>
       <c r="C15" t="n">
-        <v>737.475378078502</v>
+        <v>657.2418313844548</v>
       </c>
       <c r="D15" t="n">
-        <v>588.5409684172507</v>
+        <v>508.3074217232035</v>
       </c>
       <c r="E15" t="n">
-        <v>429.3035134117953</v>
+        <v>349.069966717748</v>
       </c>
       <c r="F15" t="n">
-        <v>282.7689554386803</v>
+        <v>202.5354087446329</v>
       </c>
       <c r="G15" t="n">
-        <v>145.5412832555495</v>
+        <v>65.30773656150215</v>
       </c>
       <c r="H15" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="I15" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="J15" t="n">
         <v>185.1392358768292</v>
@@ -5361,46 +5361,46 @@
         <v>548.3928263393643</v>
       </c>
       <c r="L15" t="n">
-        <v>731.1045614300152</v>
+        <v>731.1045614300151</v>
       </c>
       <c r="M15" t="n">
-        <v>1141.197132822077</v>
+        <v>963.6774064972805</v>
       </c>
       <c r="N15" t="n">
-        <v>1718.978994561652</v>
+        <v>1216.814407647125</v>
       </c>
       <c r="O15" t="n">
-        <v>1928.330101087704</v>
+        <v>1794.5962693867</v>
       </c>
       <c r="P15" t="n">
-        <v>2077.01975455116</v>
+        <v>2077.019754551161</v>
       </c>
       <c r="Q15" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R15" t="n">
-        <v>2326.629995268227</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S15" t="n">
-        <v>2181.133062767424</v>
+        <v>2188.975236143944</v>
       </c>
       <c r="T15" t="n">
-        <v>1985.005230504607</v>
+        <v>1992.847403881128</v>
       </c>
       <c r="U15" t="n">
-        <v>1756.880503901144</v>
+        <v>1764.722677277665</v>
       </c>
       <c r="V15" t="n">
-        <v>1589.52580669029</v>
+        <v>1529.570569045922</v>
       </c>
       <c r="W15" t="n">
-        <v>1415.521996656136</v>
+        <v>1335.288449962089</v>
       </c>
       <c r="X15" t="n">
-        <v>1287.904043144651</v>
+        <v>1127.436949756556</v>
       </c>
       <c r="Y15" t="n">
-        <v>1080.143744379697</v>
+        <v>999.9101976856498</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>539.1229485433553</v>
+        <v>539.1229485433564</v>
       </c>
       <c r="C16" t="n">
-        <v>450.4203123094958</v>
+        <v>450.4203123094968</v>
       </c>
       <c r="D16" t="n">
-        <v>380.5372195912076</v>
+        <v>380.5372195912084</v>
       </c>
       <c r="E16" t="n">
-        <v>312.857672702862</v>
+        <v>312.8576727028627</v>
       </c>
       <c r="F16" t="n">
-        <v>246.2012718989992</v>
+        <v>246.2012718989997</v>
       </c>
       <c r="G16" t="n">
-        <v>158.0071538326181</v>
+        <v>158.0071538326184</v>
       </c>
       <c r="H16" t="n">
-        <v>85.57913268839344</v>
+        <v>85.57913268839363</v>
       </c>
       <c r="I16" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2234082279188</v>
+        <v>120.2234082279186</v>
       </c>
       <c r="K16" t="n">
-        <v>320.3114555080082</v>
+        <v>320.3114555080078</v>
       </c>
       <c r="L16" t="n">
-        <v>609.8904447105133</v>
+        <v>609.8904447105145</v>
       </c>
       <c r="M16" t="n">
-        <v>921.3253246538469</v>
+        <v>921.32532465385</v>
       </c>
       <c r="N16" t="n">
-        <v>1232.659405364006</v>
+        <v>1232.659405364009</v>
       </c>
       <c r="O16" t="n">
-        <v>1510.213519297864</v>
+        <v>1510.213519297867</v>
       </c>
       <c r="P16" t="n">
-        <v>1735.537777472234</v>
+        <v>1735.537777472237</v>
       </c>
       <c r="Q16" t="n">
-        <v>1832.298320439745</v>
+        <v>1832.298320439748</v>
       </c>
       <c r="R16" t="n">
-        <v>1790.110501196414</v>
+        <v>1790.110501196417</v>
       </c>
       <c r="S16" t="n">
-        <v>1666.026386125672</v>
+        <v>1666.026386125674</v>
       </c>
       <c r="T16" t="n">
-        <v>1521.39632444816</v>
+        <v>1521.396324448162</v>
       </c>
       <c r="U16" t="n">
-        <v>1312.487468187752</v>
+        <v>1312.487468187754</v>
       </c>
       <c r="V16" t="n">
-        <v>1138.036526675913</v>
+        <v>1138.036526675915</v>
       </c>
       <c r="W16" t="n">
-        <v>928.852903333</v>
+        <v>928.8529033330014</v>
       </c>
       <c r="X16" t="n">
-        <v>781.0968991290301</v>
+        <v>781.0968991290315</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.5378666795475</v>
+        <v>640.5378666795488</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1156.994340046475</v>
+        <v>1338.709817470404</v>
       </c>
       <c r="C17" t="n">
-        <v>948.4989164941587</v>
+        <v>1130.214393918088</v>
       </c>
       <c r="D17" t="n">
-        <v>750.7003112755032</v>
+        <v>932.4157886994319</v>
       </c>
       <c r="E17" t="n">
-        <v>707.0946294892823</v>
+        <v>707.0946294892825</v>
       </c>
       <c r="F17" t="n">
-        <v>456.5758180877696</v>
+        <v>456.5758180877698</v>
       </c>
       <c r="G17" t="n">
-        <v>200.3545813302169</v>
+        <v>200.354581330217</v>
       </c>
       <c r="H17" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="I17" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="J17" t="n">
-        <v>268.5576303040251</v>
+        <v>268.557630304025</v>
       </c>
       <c r="K17" t="n">
-        <v>604.5264307378731</v>
+        <v>400.9213749217363</v>
       </c>
       <c r="L17" t="n">
-        <v>805.6371221970189</v>
+        <v>978.7032366613112</v>
       </c>
       <c r="M17" t="n">
-        <v>1061.080953771157</v>
+        <v>1234.147068235449</v>
       </c>
       <c r="N17" t="n">
-        <v>1325.271941977302</v>
+        <v>1498.338056441594</v>
       </c>
       <c r="O17" t="n">
-        <v>1561.404739318494</v>
+        <v>1855.392739562407</v>
       </c>
       <c r="P17" t="n">
-        <v>2047.018338954669</v>
+        <v>2022.425618108814</v>
       </c>
       <c r="Q17" t="n">
-        <v>2334.472168644746</v>
+        <v>2309.879447798891</v>
       </c>
       <c r="R17" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S17" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="T17" t="n">
         <v>2281.887999758019</v>
       </c>
       <c r="U17" t="n">
-        <v>2188.695346020699</v>
+        <v>2188.695346020701</v>
       </c>
       <c r="V17" t="n">
-        <v>2018.099552065223</v>
+        <v>2018.099552065225</v>
       </c>
       <c r="W17" t="n">
-        <v>1825.797990183204</v>
+        <v>1825.797990183206</v>
       </c>
       <c r="X17" t="n">
-        <v>1612.799325310219</v>
+        <v>1794.514802734148</v>
       </c>
       <c r="Y17" t="n">
-        <v>1383.127086722502</v>
+        <v>1564.842564146431</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>691.1558010874614</v>
+        <v>762.9939976983777</v>
       </c>
       <c r="C18" t="n">
-        <v>677.1698651944293</v>
+        <v>588.5409684172507</v>
       </c>
       <c r="D18" t="n">
-        <v>528.2354555331781</v>
+        <v>588.5409684172507</v>
       </c>
       <c r="E18" t="n">
-        <v>368.9980005277226</v>
+        <v>429.3035134117953</v>
       </c>
       <c r="F18" t="n">
-        <v>222.4634425546076</v>
+        <v>282.7689554386803</v>
       </c>
       <c r="G18" t="n">
-        <v>85.23577037147686</v>
+        <v>145.5412832555495</v>
       </c>
       <c r="H18" t="n">
-        <v>85.23577037147686</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="I18" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="J18" t="n">
         <v>185.1392358768292</v>
       </c>
       <c r="K18" t="n">
-        <v>548.3928263393643</v>
+        <v>366.8485170868313</v>
       </c>
       <c r="L18" t="n">
-        <v>917.9910073910048</v>
+        <v>549.5602521774821</v>
       </c>
       <c r="M18" t="n">
-        <v>1150.56385245827</v>
+        <v>782.1330972447474</v>
       </c>
       <c r="N18" t="n">
-        <v>1403.700853608114</v>
+        <v>1035.270098394592</v>
       </c>
       <c r="O18" t="n">
         <v>1613.051960134166</v>
       </c>
       <c r="P18" t="n">
-        <v>2077.01975455116</v>
+        <v>2077.019754551161</v>
       </c>
       <c r="Q18" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R18" t="n">
-        <v>2326.629995268227</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S18" t="n">
-        <v>2181.133062767424</v>
+        <v>2188.975236143944</v>
       </c>
       <c r="T18" t="n">
-        <v>1985.005230504607</v>
+        <v>1992.847403881128</v>
       </c>
       <c r="U18" t="n">
-        <v>1756.880503901144</v>
+        <v>1764.722677277665</v>
       </c>
       <c r="V18" t="n">
-        <v>1521.728395669402</v>
+        <v>1529.570569045922</v>
       </c>
       <c r="W18" t="n">
-        <v>1267.4910389412</v>
+        <v>1275.333212317721</v>
       </c>
       <c r="X18" t="n">
-        <v>1059.639538735667</v>
+        <v>1067.481712112188</v>
       </c>
       <c r="Y18" t="n">
-        <v>851.8792399707136</v>
+        <v>859.7214133472339</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>476.7655167428136</v>
+        <v>155.8313299666227</v>
       </c>
       <c r="C19" t="n">
-        <v>352.6797477399574</v>
+        <v>147.3622404268106</v>
       </c>
       <c r="D19" t="n">
-        <v>202.5631083276217</v>
+        <v>147.3622404268106</v>
       </c>
       <c r="E19" t="n">
-        <v>54.6500147452286</v>
+        <v>147.3622404268106</v>
       </c>
       <c r="F19" t="n">
-        <v>54.6500147452286</v>
+        <v>147.3622404268106</v>
       </c>
       <c r="G19" t="n">
-        <v>46.68944337289493</v>
+        <v>139.4016690544769</v>
       </c>
       <c r="H19" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="I19" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="J19" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="K19" t="n">
-        <v>168.1405915381483</v>
+        <v>168.1405915381484</v>
       </c>
       <c r="L19" t="n">
         <v>379.0826816258174</v>
@@ -5686,7 +5686,7 @@
         <v>844.5778440496397</v>
       </c>
       <c r="O19" t="n">
-        <v>1043.495058868663</v>
+        <v>1043.495058868662</v>
       </c>
       <c r="P19" t="n">
         <v>1190.182417928197</v>
@@ -5701,22 +5701,22 @@
         <v>1042.034127466798</v>
       </c>
       <c r="T19" t="n">
-        <v>977.6376124833341</v>
+        <v>977.6376124833336</v>
       </c>
       <c r="U19" t="n">
-        <v>848.9623029169736</v>
+        <v>848.9623029169729</v>
       </c>
       <c r="V19" t="n">
-        <v>754.7449080991817</v>
+        <v>754.7449080991809</v>
       </c>
       <c r="W19" t="n">
-        <v>625.794831450316</v>
+        <v>625.7948314503151</v>
       </c>
       <c r="X19" t="n">
-        <v>558.2723739403935</v>
+        <v>397.8052805522977</v>
       </c>
       <c r="Y19" t="n">
-        <v>497.9468881849584</v>
+        <v>337.4797947968624</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1156.994340046475</v>
+        <v>1338.709817470404</v>
       </c>
       <c r="C20" t="n">
-        <v>948.4989164941578</v>
+        <v>1130.214393918087</v>
       </c>
       <c r="D20" t="n">
         <v>932.4157886994315</v>
       </c>
       <c r="E20" t="n">
-        <v>707.0946294892822</v>
+        <v>707.0946294892821</v>
       </c>
       <c r="F20" t="n">
-        <v>456.5758180877695</v>
+        <v>456.5758180877693</v>
       </c>
       <c r="G20" t="n">
-        <v>200.3545813302169</v>
+        <v>200.354581330217</v>
       </c>
       <c r="H20" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="I20" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="J20" t="n">
-        <v>268.5576303040251</v>
+        <v>101.151981283672</v>
       </c>
       <c r="K20" t="n">
-        <v>579.933709892017</v>
+        <v>233.5157259013833</v>
       </c>
       <c r="L20" t="n">
-        <v>781.0444013511628</v>
+        <v>434.6264173605291</v>
       </c>
       <c r="M20" t="n">
-        <v>1036.488232925301</v>
+        <v>690.0702489346672</v>
       </c>
       <c r="N20" t="n">
-        <v>1300.679221131446</v>
+        <v>1267.852110674242</v>
       </c>
       <c r="O20" t="n">
-        <v>1536.812018472638</v>
+        <v>1845.633972413817</v>
       </c>
       <c r="P20" t="n">
-        <v>2022.425618108813</v>
+        <v>2257.210179707975</v>
       </c>
       <c r="Q20" t="n">
-        <v>2309.87944779889</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R20" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S20" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="T20" t="n">
         <v>2281.887999758019</v>
       </c>
       <c r="U20" t="n">
-        <v>2188.695346020699</v>
+        <v>2281.887999758019</v>
       </c>
       <c r="V20" t="n">
-        <v>2018.099552065223</v>
+        <v>2111.292205802543</v>
       </c>
       <c r="W20" t="n">
-        <v>1825.797990183204</v>
+        <v>2007.513467607133</v>
       </c>
       <c r="X20" t="n">
-        <v>1612.799325310219</v>
+        <v>1794.514802734148</v>
       </c>
       <c r="Y20" t="n">
-        <v>1383.127086722502</v>
+        <v>1564.842564146431</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>911.928407359629</v>
+        <v>752.6909523541735</v>
       </c>
       <c r="C21" t="n">
-        <v>737.475378078502</v>
+        <v>578.2379230730465</v>
       </c>
       <c r="D21" t="n">
-        <v>588.5409684172507</v>
+        <v>429.3035134117953</v>
       </c>
       <c r="E21" t="n">
         <v>429.3035134117953</v>
@@ -5823,58 +5823,58 @@
         <v>145.5412832555495</v>
       </c>
       <c r="H21" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="I21" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="J21" t="n">
         <v>185.1392358768292</v>
       </c>
       <c r="K21" t="n">
-        <v>286.5722416969116</v>
+        <v>286.5722416969115</v>
       </c>
       <c r="L21" t="n">
-        <v>836.415918637987</v>
+        <v>469.2839767875623</v>
       </c>
       <c r="M21" t="n">
-        <v>1068.988763705252</v>
+        <v>1047.065838527137</v>
       </c>
       <c r="N21" t="n">
-        <v>1322.125764855097</v>
+        <v>1403.700853608115</v>
       </c>
       <c r="O21" t="n">
         <v>1613.051960134166</v>
       </c>
       <c r="P21" t="n">
-        <v>2077.01975455116</v>
+        <v>2077.019754551161</v>
       </c>
       <c r="Q21" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R21" t="n">
-        <v>2334.472168644746</v>
+        <v>2326.629995268227</v>
       </c>
       <c r="S21" t="n">
-        <v>2334.472168644746</v>
+        <v>2181.133062767424</v>
       </c>
       <c r="T21" t="n">
-        <v>2213.269734913591</v>
+        <v>1985.005230504608</v>
       </c>
       <c r="U21" t="n">
-        <v>1985.145008310128</v>
+        <v>1756.880503901145</v>
       </c>
       <c r="V21" t="n">
-        <v>1749.992900078385</v>
+        <v>1521.728395669402</v>
       </c>
       <c r="W21" t="n">
-        <v>1495.755543350184</v>
+        <v>1267.491038941201</v>
       </c>
       <c r="X21" t="n">
-        <v>1287.904043144651</v>
+        <v>1128.666588139195</v>
       </c>
       <c r="Y21" t="n">
-        <v>1080.143744379697</v>
+        <v>920.9062893742416</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>599.1868826801921</v>
+        <v>438.719789292096</v>
       </c>
       <c r="C22" t="n">
-        <v>499.5696952378678</v>
+        <v>269.7836063641892</v>
       </c>
       <c r="D22" t="n">
-        <v>349.4530558255321</v>
+        <v>269.7836063641892</v>
       </c>
       <c r="E22" t="n">
-        <v>201.539962243139</v>
+        <v>215.1171081333235</v>
       </c>
       <c r="F22" t="n">
-        <v>54.6500147452286</v>
+        <v>215.1171081333235</v>
       </c>
       <c r="G22" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="H22" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="I22" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="J22" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289494</v>
       </c>
       <c r="K22" t="n">
-        <v>168.1405915381483</v>
+        <v>168.1405915381484</v>
       </c>
       <c r="L22" t="n">
         <v>379.0826816258174</v>
@@ -5923,7 +5923,7 @@
         <v>844.5778440496397</v>
       </c>
       <c r="O22" t="n">
-        <v>1043.495058868663</v>
+        <v>1043.495058868662</v>
       </c>
       <c r="P22" t="n">
         <v>1190.182417928197</v>
@@ -5935,25 +5935,25 @@
         <v>1208.306061780872</v>
       </c>
       <c r="S22" t="n">
-        <v>1164.455493404177</v>
+        <v>1164.455493404176</v>
       </c>
       <c r="T22" t="n">
-        <v>1100.058978420713</v>
+        <v>1100.058978420712</v>
       </c>
       <c r="U22" t="n">
-        <v>971.3836688543522</v>
+        <v>971.3836688543514</v>
       </c>
       <c r="V22" t="n">
-        <v>877.1662740365603</v>
+        <v>877.1662740365593</v>
       </c>
       <c r="W22" t="n">
-        <v>748.2161973876946</v>
+        <v>748.2161973876936</v>
       </c>
       <c r="X22" t="n">
-        <v>680.6937398777721</v>
+        <v>520.2266464896762</v>
       </c>
       <c r="Y22" t="n">
-        <v>620.3682541223369</v>
+        <v>459.9011607342409</v>
       </c>
     </row>
     <row r="23">
@@ -5972,28 +5972,28 @@
         <v>936.1242678305323</v>
       </c>
       <c r="E23" t="n">
-        <v>710.803108620383</v>
+        <v>710.8031086203831</v>
       </c>
       <c r="F23" t="n">
         <v>460.2842972188703</v>
       </c>
       <c r="G23" t="n">
-        <v>204.0630604613175</v>
+        <v>204.0630604613176</v>
       </c>
       <c r="H23" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399553</v>
       </c>
       <c r="I23" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399553</v>
       </c>
       <c r="J23" t="n">
-        <v>272.2661094351257</v>
+        <v>272.2661094351256</v>
       </c>
       <c r="K23" t="n">
-        <v>404.629854052837</v>
+        <v>404.6298540528369</v>
       </c>
       <c r="L23" t="n">
-        <v>605.7405455119829</v>
+        <v>605.7405455119826</v>
       </c>
       <c r="M23" t="n">
         <v>1229.414836498927</v>
@@ -6008,19 +6008,19 @@
         <v>2442.634136263005</v>
       </c>
       <c r="Q23" t="n">
-        <v>2519.896125199776</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="R23" t="n">
-        <v>2519.896125199776</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="S23" t="n">
-        <v>2519.896125199776</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="T23" t="n">
         <v>2467.311956313049</v>
       </c>
       <c r="U23" t="n">
-        <v>2374.119302575728</v>
+        <v>2374.119302575729</v>
       </c>
       <c r="V23" t="n">
         <v>2203.523508620253</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>954.1832134893115</v>
+        <v>954.1832134893117</v>
       </c>
       <c r="C24" t="n">
-        <v>779.7301842081845</v>
+        <v>779.7301842081847</v>
       </c>
       <c r="D24" t="n">
-        <v>630.7957745469332</v>
+        <v>630.7957745469334</v>
       </c>
       <c r="E24" t="n">
-        <v>471.5583195414778</v>
+        <v>471.5583195414779</v>
       </c>
       <c r="F24" t="n">
         <v>325.0237615683628</v>
@@ -6060,10 +6060,10 @@
         <v>187.796089385232</v>
       </c>
       <c r="H24" t="n">
-        <v>88.94424950257745</v>
+        <v>88.94424950257746</v>
       </c>
       <c r="I24" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399553</v>
       </c>
       <c r="J24" t="n">
         <v>188.8477150079298</v>
@@ -6081,37 +6081,37 @@
         <v>1587.65482862865</v>
       </c>
       <c r="O24" t="n">
-        <v>2006.452431547686</v>
+        <v>1798.475916689196</v>
       </c>
       <c r="P24" t="n">
-        <v>2470.42022596468</v>
+        <v>2262.44371110619</v>
       </c>
       <c r="Q24" t="n">
-        <v>2519.896125199776</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="R24" t="n">
-        <v>2519.896125199776</v>
+        <v>2512.053951823257</v>
       </c>
       <c r="S24" t="n">
-        <v>2374.399192698973</v>
+        <v>2366.557019322454</v>
       </c>
       <c r="T24" t="n">
-        <v>2255.524541043273</v>
+        <v>2170.429187059637</v>
       </c>
       <c r="U24" t="n">
-        <v>2027.39981443981</v>
+        <v>1942.304460456174</v>
       </c>
       <c r="V24" t="n">
-        <v>1792.247706208068</v>
+        <v>1707.152352224432</v>
       </c>
       <c r="W24" t="n">
-        <v>1538.010349479866</v>
+        <v>1452.91499549623</v>
       </c>
       <c r="X24" t="n">
-        <v>1330.158849274333</v>
+        <v>1245.063495290697</v>
       </c>
       <c r="Y24" t="n">
-        <v>1122.398550509379</v>
+        <v>1037.303196525743</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>602.8953618112927</v>
+        <v>191.1573639209554</v>
       </c>
       <c r="C25" t="n">
-        <v>508.4847188642364</v>
+        <v>182.6882743811433</v>
       </c>
       <c r="D25" t="n">
-        <v>358.3680794519007</v>
+        <v>182.6882743811433</v>
       </c>
       <c r="E25" t="n">
-        <v>210.4549858695075</v>
+        <v>182.6882743811433</v>
       </c>
       <c r="F25" t="n">
-        <v>63.56503837159717</v>
+        <v>182.6882743811433</v>
       </c>
       <c r="G25" t="n">
-        <v>55.60446699926349</v>
+        <v>174.7277030088096</v>
       </c>
       <c r="H25" t="n">
-        <v>55.60446699926349</v>
+        <v>174.7277030088096</v>
       </c>
       <c r="I25" t="n">
-        <v>55.60446699926349</v>
+        <v>55.60446699926351</v>
       </c>
       <c r="J25" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399553</v>
       </c>
       <c r="K25" t="n">
         <v>171.8490706692489</v>
@@ -6172,25 +6172,25 @@
         <v>1212.014540911973</v>
       </c>
       <c r="S25" t="n">
-        <v>1168.163972535277</v>
+        <v>1007.696879147182</v>
       </c>
       <c r="T25" t="n">
-        <v>1103.767457551813</v>
+        <v>943.3003641637182</v>
       </c>
       <c r="U25" t="n">
-        <v>975.0921479854528</v>
+        <v>654.1579612092628</v>
       </c>
       <c r="V25" t="n">
-        <v>880.8747531676609</v>
+        <v>559.9405663914707</v>
       </c>
       <c r="W25" t="n">
-        <v>751.9246765187952</v>
+        <v>340.1866786284581</v>
       </c>
       <c r="X25" t="n">
-        <v>684.4022190088727</v>
+        <v>272.6642211185356</v>
       </c>
       <c r="Y25" t="n">
-        <v>624.0767332534375</v>
+        <v>212.3387353631003</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1871.021482161256</v>
+        <v>1871.021482161257</v>
       </c>
       <c r="C26" t="n">
         <v>1582.292511914892</v>
@@ -6218,55 +6218,55 @@
         <v>331.4985125508319</v>
       </c>
       <c r="H26" t="n">
-        <v>97.59982789946163</v>
+        <v>97.5998278994617</v>
       </c>
       <c r="I26" t="n">
-        <v>73.54026249367038</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J26" t="n">
         <v>295.4084494248005</v>
       </c>
       <c r="K26" t="n">
-        <v>427.7721940425118</v>
+        <v>748.6761524879649</v>
       </c>
       <c r="L26" t="n">
-        <v>1042.367487906604</v>
+        <v>1363.271446352057</v>
       </c>
       <c r="M26" t="n">
-        <v>1742.829717638646</v>
+        <v>2063.733676084099</v>
       </c>
       <c r="N26" t="n">
-        <v>2439.994161012655</v>
+        <v>2327.924664290244</v>
       </c>
       <c r="O26" t="n">
-        <v>3053.119137803966</v>
+        <v>2941.049641081554</v>
       </c>
       <c r="P26" t="n">
         <v>3364.966574147586</v>
       </c>
       <c r="Q26" t="n">
-        <v>3652.420403837663</v>
+        <v>3652.420403837664</v>
       </c>
       <c r="R26" t="n">
-        <v>3677.013124683519</v>
+        <v>3677.01312468352</v>
       </c>
       <c r="S26" t="n">
-        <v>3610.134137617859</v>
+        <v>3610.13413761786</v>
       </c>
       <c r="T26" t="n">
-        <v>3477.316422037084</v>
+        <v>3477.316422037085</v>
       </c>
       <c r="U26" t="n">
-        <v>3303.890221605717</v>
+        <v>3303.890221605718</v>
       </c>
       <c r="V26" t="n">
-        <v>3053.060880956194</v>
+        <v>3053.060880956195</v>
       </c>
       <c r="W26" t="n">
-        <v>2780.525772380127</v>
+        <v>2780.525772380128</v>
       </c>
       <c r="X26" t="n">
-        <v>2487.293560813095</v>
+        <v>2487.293560813096</v>
       </c>
       <c r="Y26" t="n">
         <v>2177.387775531331</v>
@@ -6300,7 +6300,7 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I27" t="n">
-        <v>73.54026249367038</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J27" t="n">
         <v>211.9900549976047</v>
@@ -6309,19 +6309,19 @@
         <v>575.2436454601398</v>
       </c>
       <c r="L27" t="n">
-        <v>799.310350018756</v>
+        <v>1125.087322401215</v>
       </c>
       <c r="M27" t="n">
-        <v>1492.931208198521</v>
+        <v>1357.660167468481</v>
       </c>
       <c r="N27" t="n">
-        <v>2220.617159948483</v>
+        <v>1610.797168618325</v>
       </c>
       <c r="O27" t="n">
-        <v>2429.968266474535</v>
+        <v>1906.713610662506</v>
       </c>
       <c r="P27" t="n">
-        <v>2578.657919937991</v>
+        <v>2370.681405079501</v>
       </c>
       <c r="Q27" t="n">
         <v>2628.133819173087</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.9737676641312</v>
+        <v>565.9737676641313</v>
       </c>
       <c r="C28" t="n">
         <v>477.2711314302717</v>
@@ -6367,34 +6367,34 @@
         <v>407.3880387119834</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7084918236378</v>
+        <v>339.7084918236377</v>
       </c>
       <c r="F28" t="n">
-        <v>273.0520910197749</v>
+        <v>273.0520910197748</v>
       </c>
       <c r="G28" t="n">
-        <v>184.8579729533938</v>
+        <v>184.8579729533936</v>
       </c>
       <c r="H28" t="n">
-        <v>112.4299518091691</v>
+        <v>112.4299518091689</v>
       </c>
       <c r="I28" t="n">
-        <v>73.54026249367038</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J28" t="n">
-        <v>147.0742273486941</v>
+        <v>147.0742273486939</v>
       </c>
       <c r="K28" t="n">
-        <v>347.1622746287835</v>
+        <v>347.1622746287832</v>
       </c>
       <c r="L28" t="n">
-        <v>636.7412638312885</v>
+        <v>636.7412638312879</v>
       </c>
       <c r="M28" t="n">
-        <v>948.1761437746241</v>
+        <v>948.1761437746235</v>
       </c>
       <c r="N28" t="n">
-        <v>1259.510224484783</v>
+        <v>1259.510224484782</v>
       </c>
       <c r="O28" t="n">
         <v>1537.064338418641</v>
@@ -6403,7 +6403,7 @@
         <v>1762.388596593011</v>
       </c>
       <c r="Q28" t="n">
-        <v>1859.149139560523</v>
+        <v>1859.149139560522</v>
       </c>
       <c r="R28" t="n">
         <v>1816.961320317191</v>
@@ -6415,19 +6415,19 @@
         <v>1548.247143568937</v>
       </c>
       <c r="U28" t="n">
-        <v>1339.338287308528</v>
+        <v>1339.338287308529</v>
       </c>
       <c r="V28" t="n">
         <v>1164.887345796689</v>
       </c>
       <c r="W28" t="n">
-        <v>955.7037224537759</v>
+        <v>955.703722453776</v>
       </c>
       <c r="X28" t="n">
         <v>807.947718249806</v>
       </c>
       <c r="Y28" t="n">
-        <v>667.3886858003234</v>
+        <v>667.3886858003236</v>
       </c>
     </row>
     <row r="29">
@@ -6437,70 +6437,70 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1871.021482161255</v>
+        <v>1871.021482161256</v>
       </c>
       <c r="C29" t="n">
-        <v>1582.292511914891</v>
+        <v>1582.292511914892</v>
       </c>
       <c r="D29" t="n">
         <v>1304.260360002188</v>
       </c>
       <c r="E29" t="n">
-        <v>998.7056540979911</v>
+        <v>998.7056540979918</v>
       </c>
       <c r="F29" t="n">
-        <v>667.9532960024309</v>
+        <v>667.9532960024317</v>
       </c>
       <c r="G29" t="n">
-        <v>331.4985125508306</v>
+        <v>331.4985125508315</v>
       </c>
       <c r="H29" t="n">
-        <v>97.59982789946169</v>
+        <v>97.59982789946166</v>
       </c>
       <c r="I29" t="n">
-        <v>73.54026249367038</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J29" t="n">
-        <v>128.0028004044475</v>
+        <v>295.4084494248004</v>
       </c>
       <c r="K29" t="n">
-        <v>581.2705034676119</v>
+        <v>699.0244289078621</v>
       </c>
       <c r="L29" t="n">
-        <v>1195.865797331704</v>
+        <v>1313.619722771954</v>
       </c>
       <c r="M29" t="n">
-        <v>1896.328027063746</v>
+        <v>1569.063554346092</v>
       </c>
       <c r="N29" t="n">
-        <v>2593.492470437755</v>
+        <v>2266.227997720101</v>
       </c>
       <c r="O29" t="n">
-        <v>3206.617447229066</v>
+        <v>2879.352974511412</v>
       </c>
       <c r="P29" t="n">
-        <v>3599.751135746747</v>
+        <v>3364.966574147586</v>
       </c>
       <c r="Q29" t="n">
-        <v>3677.013124683519</v>
+        <v>3652.420403837664</v>
       </c>
       <c r="R29" t="n">
-        <v>3677.013124683519</v>
+        <v>3677.01312468352</v>
       </c>
       <c r="S29" t="n">
-        <v>3610.134137617858</v>
+        <v>3610.134137617859</v>
       </c>
       <c r="T29" t="n">
         <v>3477.316422037084</v>
       </c>
       <c r="U29" t="n">
-        <v>3303.890221605716</v>
+        <v>3303.890221605717</v>
       </c>
       <c r="V29" t="n">
-        <v>3053.060880956193</v>
+        <v>3053.060880956194</v>
       </c>
       <c r="W29" t="n">
-        <v>2780.525772380126</v>
+        <v>2780.525772380127</v>
       </c>
       <c r="X29" t="n">
         <v>2487.293560813094</v>
@@ -6537,7 +6537,7 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I30" t="n">
-        <v>73.54026249367038</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J30" t="n">
         <v>211.9900549976047</v>
@@ -6546,13 +6546,13 @@
         <v>575.2436454601398</v>
       </c>
       <c r="L30" t="n">
-        <v>1125.087322401215</v>
+        <v>757.9553805507906</v>
       </c>
       <c r="M30" t="n">
-        <v>1357.660167468481</v>
+        <v>990.5282256180559</v>
       </c>
       <c r="N30" t="n">
-        <v>1610.797168618325</v>
+        <v>1307.438808052493</v>
       </c>
       <c r="O30" t="n">
         <v>1906.713610662506</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.9737676641312</v>
+        <v>565.9737676641313</v>
       </c>
       <c r="C31" t="n">
-        <v>477.2711314302716</v>
+        <v>477.2711314302718</v>
       </c>
       <c r="D31" t="n">
-        <v>407.3880387119833</v>
+        <v>407.3880387119835</v>
       </c>
       <c r="E31" t="n">
-        <v>339.7084918236376</v>
+        <v>339.7084918236379</v>
       </c>
       <c r="F31" t="n">
-        <v>273.0520910197747</v>
+        <v>273.052091019775</v>
       </c>
       <c r="G31" t="n">
-        <v>184.8579729533935</v>
+        <v>184.8579729533939</v>
       </c>
       <c r="H31" t="n">
-        <v>112.4299518091688</v>
+        <v>112.429951809169</v>
       </c>
       <c r="I31" t="n">
-        <v>73.54026249367038</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J31" t="n">
-        <v>147.0742273486941</v>
+        <v>147.0742273486939</v>
       </c>
       <c r="K31" t="n">
-        <v>347.1622746287836</v>
+        <v>347.1622746287832</v>
       </c>
       <c r="L31" t="n">
-        <v>636.7412638312883</v>
+        <v>636.7412638312882</v>
       </c>
       <c r="M31" t="n">
-        <v>948.1761437746236</v>
+        <v>948.1761437746237</v>
       </c>
       <c r="N31" t="n">
         <v>1259.510224484782</v>
@@ -6643,7 +6643,7 @@
         <v>1859.149139560522</v>
       </c>
       <c r="R31" t="n">
-        <v>1816.961320317191</v>
+        <v>1816.96132031719</v>
       </c>
       <c r="S31" t="n">
         <v>1692.877205246448</v>
@@ -6652,16 +6652,16 @@
         <v>1548.247143568937</v>
       </c>
       <c r="U31" t="n">
-        <v>1339.338287308529</v>
+        <v>1339.338287308528</v>
       </c>
       <c r="V31" t="n">
         <v>1164.887345796689</v>
       </c>
       <c r="W31" t="n">
-        <v>955.703722453776</v>
+        <v>955.7037224537758</v>
       </c>
       <c r="X31" t="n">
-        <v>807.947718249806</v>
+        <v>807.9477182498059</v>
       </c>
       <c r="Y31" t="n">
         <v>667.3886858003235</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1871.021482161255</v>
+        <v>1871.021482161256</v>
       </c>
       <c r="C32" t="n">
-        <v>1582.292511914891</v>
+        <v>1582.292511914892</v>
       </c>
       <c r="D32" t="n">
         <v>1304.260360002188</v>
@@ -6689,55 +6689,55 @@
         <v>667.9532960024317</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4985125508315</v>
+        <v>331.4985125508314</v>
       </c>
       <c r="H32" t="n">
-        <v>97.5998278994616</v>
+        <v>97.59982789946169</v>
       </c>
       <c r="I32" t="n">
-        <v>73.54026249367038</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J32" t="n">
-        <v>295.4084494248005</v>
+        <v>295.4084494248004</v>
       </c>
       <c r="K32" t="n">
-        <v>748.6761524879649</v>
+        <v>427.7721940425117</v>
       </c>
       <c r="L32" t="n">
-        <v>1301.574779781913</v>
+        <v>1042.367487906603</v>
       </c>
       <c r="M32" t="n">
-        <v>2002.037009513955</v>
+        <v>1742.829717638646</v>
       </c>
       <c r="N32" t="n">
-        <v>2266.2279977201</v>
+        <v>2439.994161012654</v>
       </c>
       <c r="O32" t="n">
-        <v>2879.352974511411</v>
+        <v>3053.119137803965</v>
       </c>
       <c r="P32" t="n">
-        <v>3364.966574147586</v>
+        <v>3538.73273744014</v>
       </c>
       <c r="Q32" t="n">
-        <v>3652.420403837663</v>
+        <v>3652.420403837664</v>
       </c>
       <c r="R32" t="n">
-        <v>3677.013124683519</v>
+        <v>3677.01312468352</v>
       </c>
       <c r="S32" t="n">
-        <v>3610.134137617859</v>
+        <v>3610.13413761786</v>
       </c>
       <c r="T32" t="n">
-        <v>3477.316422037084</v>
+        <v>3477.316422037085</v>
       </c>
       <c r="U32" t="n">
-        <v>3303.890221605716</v>
+        <v>3303.890221605717</v>
       </c>
       <c r="V32" t="n">
-        <v>3053.060880956193</v>
+        <v>3053.060880956194</v>
       </c>
       <c r="W32" t="n">
-        <v>2780.525772380126</v>
+        <v>2780.525772380127</v>
       </c>
       <c r="X32" t="n">
         <v>2487.293560813094</v>
@@ -6774,7 +6774,7 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I33" t="n">
-        <v>73.54026249367038</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J33" t="n">
         <v>211.9900549976047</v>
@@ -6786,10 +6786,10 @@
         <v>1125.087322401215</v>
       </c>
       <c r="M33" t="n">
-        <v>1357.660167468481</v>
+        <v>1444.225502986611</v>
       </c>
       <c r="N33" t="n">
-        <v>1610.797168618325</v>
+        <v>1697.362504136455</v>
       </c>
       <c r="O33" t="n">
         <v>1906.713610662506</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.9737676641307</v>
+        <v>565.9737676641312</v>
       </c>
       <c r="C34" t="n">
-        <v>477.2711314302713</v>
+        <v>477.2711314302717</v>
       </c>
       <c r="D34" t="n">
-        <v>407.3880387119831</v>
+        <v>407.3880387119834</v>
       </c>
       <c r="E34" t="n">
-        <v>339.7084918236375</v>
+        <v>339.7084918236378</v>
       </c>
       <c r="F34" t="n">
-        <v>273.0520910197747</v>
+        <v>273.0520910197748</v>
       </c>
       <c r="G34" t="n">
-        <v>184.8579729533936</v>
+        <v>184.8579729533937</v>
       </c>
       <c r="H34" t="n">
-        <v>112.4299518091689</v>
+        <v>112.429951809169</v>
       </c>
       <c r="I34" t="n">
-        <v>73.54026249367038</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J34" t="n">
-        <v>147.0742273486942</v>
+        <v>147.0742273486941</v>
       </c>
       <c r="K34" t="n">
-        <v>347.1622746287836</v>
+        <v>347.1622746287835</v>
       </c>
       <c r="L34" t="n">
-        <v>636.7412638312885</v>
+        <v>636.7412638312884</v>
       </c>
       <c r="M34" t="n">
         <v>948.1761437746241</v>
       </c>
       <c r="N34" t="n">
-        <v>1259.510224484781</v>
+        <v>1259.510224484783</v>
       </c>
       <c r="O34" t="n">
-        <v>1537.06433841864</v>
+        <v>1537.064338418641</v>
       </c>
       <c r="P34" t="n">
-        <v>1762.38859659301</v>
+        <v>1762.388596593011</v>
       </c>
       <c r="Q34" t="n">
-        <v>1859.149139560521</v>
+        <v>1859.149139560522</v>
       </c>
       <c r="R34" t="n">
-        <v>1816.96132031719</v>
+        <v>1816.961320317191</v>
       </c>
       <c r="S34" t="n">
-        <v>1692.877205246447</v>
+        <v>1692.877205246448</v>
       </c>
       <c r="T34" t="n">
-        <v>1548.247143568936</v>
+        <v>1548.247143568937</v>
       </c>
       <c r="U34" t="n">
-        <v>1339.338287308528</v>
+        <v>1339.338287308529</v>
       </c>
       <c r="V34" t="n">
         <v>1164.887345796689</v>
       </c>
       <c r="W34" t="n">
-        <v>955.7037224537754</v>
+        <v>955.703722453776</v>
       </c>
       <c r="X34" t="n">
-        <v>807.9477182498056</v>
+        <v>807.947718249806</v>
       </c>
       <c r="Y34" t="n">
-        <v>667.3886858003229</v>
+        <v>667.3886858003234</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>1426.088700803848</v>
       </c>
       <c r="C35" t="n">
-        <v>1204.238717623145</v>
+        <v>1204.238717623144</v>
       </c>
       <c r="D35" t="n">
-        <v>993.0855527761017</v>
+        <v>993.0855527761015</v>
       </c>
       <c r="E35" t="n">
-        <v>754.4098339375653</v>
+        <v>754.4098339375651</v>
       </c>
       <c r="F35" t="n">
-        <v>490.5364629076655</v>
+        <v>490.5364629076653</v>
       </c>
       <c r="G35" t="n">
         <v>220.9606665217257</v>
@@ -6935,28 +6935,28 @@
         <v>53.94096893601659</v>
       </c>
       <c r="J35" t="n">
-        <v>275.8091558671467</v>
+        <v>275.8091558671466</v>
       </c>
       <c r="K35" t="n">
-        <v>729.0768589303111</v>
+        <v>408.1729004848579</v>
       </c>
       <c r="L35" t="n">
-        <v>1343.672152794403</v>
+        <v>609.2835919440037</v>
       </c>
       <c r="M35" t="n">
-        <v>1599.115984368541</v>
+        <v>1276.803082527209</v>
       </c>
       <c r="N35" t="n">
-        <v>1863.306972574686</v>
+        <v>1540.994070733353</v>
       </c>
       <c r="O35" t="n">
-        <v>2099.439769915879</v>
+        <v>1899.388296628721</v>
       </c>
       <c r="P35" t="n">
-        <v>2409.594617110752</v>
+        <v>2385.001896264896</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.048446800829</v>
+        <v>2672.455725954973</v>
       </c>
       <c r="R35" t="n">
         <v>2697.048446800829</v>
@@ -6968,10 +6968,10 @@
         <v>2631.109718285715</v>
       </c>
       <c r="U35" t="n">
-        <v>2524.562504920008</v>
+        <v>2524.562504920007</v>
       </c>
       <c r="V35" t="n">
-        <v>2340.612151336145</v>
+        <v>2340.612151336144</v>
       </c>
       <c r="W35" t="n">
         <v>2134.956029825738</v>
@@ -7008,25 +7008,25 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H36" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459852</v>
       </c>
       <c r="I36" t="n">
         <v>53.94096893601659</v>
       </c>
       <c r="J36" t="n">
-        <v>192.3907614399509</v>
+        <v>192.3907614399508</v>
       </c>
       <c r="K36" t="n">
-        <v>293.8237672600333</v>
+        <v>555.6443519024861</v>
       </c>
       <c r="L36" t="n">
-        <v>476.5355023506842</v>
+        <v>1105.488028843562</v>
       </c>
       <c r="M36" t="n">
-        <v>1034.702513344995</v>
+        <v>1338.060873910827</v>
       </c>
       <c r="N36" t="n">
-        <v>1287.839514494839</v>
+        <v>1591.197875060671</v>
       </c>
       <c r="O36" t="n">
         <v>1887.114317104853</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>352.4893974565088</v>
+        <v>230.0680315191302</v>
       </c>
       <c r="C37" t="n">
-        <v>236.9288777455908</v>
+        <v>84.60979949061506</v>
       </c>
       <c r="D37" t="n">
-        <v>233.9247720929628</v>
+        <v>81.6056938379871</v>
       </c>
       <c r="E37" t="n">
-        <v>233.1242122702775</v>
+        <v>80.80513401530176</v>
       </c>
       <c r="F37" t="n">
-        <v>233.1242122702775</v>
+        <v>80.80513401530176</v>
       </c>
       <c r="G37" t="n">
-        <v>211.8090812695567</v>
+        <v>59.49000301458095</v>
       </c>
       <c r="H37" t="n">
-        <v>59.14751343128456</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I37" t="n">
-        <v>59.14751343128456</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J37" t="n">
         <v>53.94096893601659</v>
@@ -7099,7 +7099,7 @@
         <v>175.39211710127</v>
       </c>
       <c r="L37" t="n">
-        <v>386.3342071889391</v>
+        <v>386.334207188939</v>
       </c>
       <c r="M37" t="n">
         <v>619.1321880174387</v>
@@ -7117,28 +7117,28 @@
         <v>1215.557587343994</v>
       </c>
       <c r="R37" t="n">
-        <v>1215.557587343994</v>
+        <v>1093.136221406615</v>
       </c>
       <c r="S37" t="n">
-        <v>1011.239925579203</v>
+        <v>1035.931093401533</v>
       </c>
       <c r="T37" t="n">
-        <v>933.4888509673523</v>
+        <v>958.1800187896814</v>
       </c>
       <c r="U37" t="n">
-        <v>791.4589817726046</v>
+        <v>816.1501495949337</v>
       </c>
       <c r="V37" t="n">
-        <v>683.8870273264255</v>
+        <v>561.4656613890469</v>
       </c>
       <c r="W37" t="n">
-        <v>541.5823910491727</v>
+        <v>419.1610251117941</v>
       </c>
       <c r="X37" t="n">
-        <v>460.7053739108631</v>
+        <v>338.2840079734845</v>
       </c>
       <c r="Y37" t="n">
-        <v>387.0253285270408</v>
+        <v>264.6039625896622</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1426.088700803848</v>
+        <v>1426.088700803849</v>
       </c>
       <c r="C38" t="n">
-        <v>1204.238717623144</v>
+        <v>1204.238717623145</v>
       </c>
       <c r="D38" t="n">
-        <v>993.0855527761014</v>
+        <v>993.0855527761028</v>
       </c>
       <c r="E38" t="n">
-        <v>754.4098339375649</v>
+        <v>754.4098339375662</v>
       </c>
       <c r="F38" t="n">
-        <v>490.5364629076652</v>
+        <v>490.5364629076664</v>
       </c>
       <c r="G38" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J38" t="n">
-        <v>108.4035068467937</v>
+        <v>275.8091558671467</v>
       </c>
       <c r="K38" t="n">
-        <v>293.3228298728977</v>
+        <v>480.7700273106901</v>
       </c>
       <c r="L38" t="n">
-        <v>907.9181237369896</v>
+        <v>681.8807187698359</v>
       </c>
       <c r="M38" t="n">
-        <v>1575.437614320195</v>
+        <v>937.324550343974</v>
       </c>
       <c r="N38" t="n">
-        <v>1839.628602526339</v>
+        <v>1604.84404092718</v>
       </c>
       <c r="O38" t="n">
-        <v>2452.75357931765</v>
+        <v>2217.96901771849</v>
       </c>
       <c r="P38" t="n">
-        <v>2619.786457864057</v>
+        <v>2385.001896264897</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.048446800829</v>
+        <v>2672.455725954974</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="T38" t="n">
-        <v>2631.109718285714</v>
+        <v>2631.109718285716</v>
       </c>
       <c r="U38" t="n">
-        <v>2524.562504920007</v>
+        <v>2524.562504920008</v>
       </c>
       <c r="V38" t="n">
-        <v>2340.612151336144</v>
+        <v>2340.612151336145</v>
       </c>
       <c r="W38" t="n">
-        <v>2134.956029825738</v>
+        <v>2134.956029825739</v>
       </c>
       <c r="X38" t="n">
-        <v>1908.602805324366</v>
+        <v>1908.602805324367</v>
       </c>
       <c r="Y38" t="n">
-        <v>1665.576007108262</v>
+        <v>1665.576007108263</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H39" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459854</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J39" t="n">
         <v>67.56063645294611</v>
       </c>
       <c r="K39" t="n">
-        <v>430.8142269154813</v>
+        <v>168.9936422730285</v>
       </c>
       <c r="L39" t="n">
-        <v>980.6579038565567</v>
+        <v>351.7053773636793</v>
       </c>
       <c r="M39" t="n">
-        <v>1213.230748923822</v>
+        <v>1019.224867946885</v>
       </c>
       <c r="N39" t="n">
-        <v>1466.367750073666</v>
+        <v>1677.763210578802</v>
       </c>
       <c r="O39" t="n">
-        <v>2065.64255268368</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P39" t="n">
-        <v>2529.610347100675</v>
+        <v>2351.082111521847</v>
       </c>
       <c r="Q39" t="n">
         <v>2608.534525615434</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>400.6585161782297</v>
+        <v>225.5566846683602</v>
       </c>
       <c r="C40" t="n">
-        <v>378.8348670100306</v>
+        <v>203.7330355001611</v>
       </c>
       <c r="D40" t="n">
-        <v>375.8307613574027</v>
+        <v>200.7289298475332</v>
       </c>
       <c r="E40" t="n">
-        <v>375.0302015347173</v>
+        <v>199.9283700248478</v>
       </c>
       <c r="F40" t="n">
-        <v>375.0302015347173</v>
+        <v>199.9283700248478</v>
       </c>
       <c r="G40" t="n">
-        <v>206.6025367742887</v>
+        <v>178.613239024127</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94096893601658</v>
+        <v>173.0642049455626</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="K40" t="n">
         <v>175.39211710127</v>
@@ -7354,28 +7354,28 @@
         <v>1215.557587343994</v>
       </c>
       <c r="R40" t="n">
-        <v>1116.614172306006</v>
+        <v>1215.557587343994</v>
       </c>
       <c r="S40" t="n">
-        <v>1059.409044300924</v>
+        <v>1158.352459338911</v>
       </c>
       <c r="T40" t="n">
-        <v>981.6579696890728</v>
+        <v>1080.60138472706</v>
       </c>
       <c r="U40" t="n">
-        <v>839.6281004943253</v>
+        <v>938.5715155323123</v>
       </c>
       <c r="V40" t="n">
-        <v>732.0561460481462</v>
+        <v>830.9995610861332</v>
       </c>
       <c r="W40" t="n">
-        <v>589.7515097708933</v>
+        <v>541.5823910491727</v>
       </c>
       <c r="X40" t="n">
-        <v>508.8744926325838</v>
+        <v>333.7726611227145</v>
       </c>
       <c r="Y40" t="n">
-        <v>435.1944472487615</v>
+        <v>260.0926157388922</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1204.238717623145</v>
       </c>
       <c r="D41" t="n">
-        <v>993.0855527761025</v>
+        <v>993.0855527761023</v>
       </c>
       <c r="E41" t="n">
-        <v>754.4098339375661</v>
+        <v>754.4098339375658</v>
       </c>
       <c r="F41" t="n">
-        <v>490.5364629076663</v>
+        <v>490.5364629076661</v>
       </c>
       <c r="G41" t="n">
         <v>220.9606665217257</v>
@@ -7412,25 +7412,25 @@
         <v>275.8091558671467</v>
       </c>
       <c r="K41" t="n">
-        <v>408.172900484858</v>
+        <v>729.0768589303111</v>
       </c>
       <c r="L41" t="n">
-        <v>1022.76819434895</v>
+        <v>1343.672152794403</v>
       </c>
       <c r="M41" t="n">
-        <v>1278.212025923088</v>
+        <v>1599.115984368541</v>
       </c>
       <c r="N41" t="n">
-        <v>1687.848220133386</v>
+        <v>1863.306972574685</v>
       </c>
       <c r="O41" t="n">
-        <v>1923.981017474578</v>
+        <v>2099.439769915878</v>
       </c>
       <c r="P41" t="n">
-        <v>2409.594617110753</v>
+        <v>2585.053369552053</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.04844680083</v>
+        <v>2672.455725954974</v>
       </c>
       <c r="R41" t="n">
         <v>2697.04844680083</v>
@@ -7488,25 +7488,25 @@
         <v>53.94096893601661</v>
       </c>
       <c r="J42" t="n">
-        <v>67.56063645294611</v>
+        <v>192.3907614399509</v>
       </c>
       <c r="K42" t="n">
-        <v>168.9936422730285</v>
+        <v>555.6443519024861</v>
       </c>
       <c r="L42" t="n">
-        <v>351.7053773636793</v>
+        <v>1105.488028843562</v>
       </c>
       <c r="M42" t="n">
-        <v>1019.224867946885</v>
+        <v>1338.060873910827</v>
       </c>
       <c r="N42" t="n">
-        <v>1686.74435853009</v>
+        <v>1591.197875060671</v>
       </c>
       <c r="O42" t="n">
-        <v>2286.019161140104</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P42" t="n">
-        <v>2434.70881460356</v>
+        <v>2351.082111521847</v>
       </c>
       <c r="Q42" t="n">
         <v>2608.534525615434</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>499.6019312162169</v>
+        <v>352.489397456509</v>
       </c>
       <c r="C43" t="n">
-        <v>330.6657482883101</v>
+        <v>330.6657482883099</v>
       </c>
       <c r="D43" t="n">
-        <v>180.5491088759743</v>
+        <v>327.661642635682</v>
       </c>
       <c r="E43" t="n">
-        <v>86.01167851056971</v>
+        <v>326.8610828129967</v>
       </c>
       <c r="F43" t="n">
-        <v>86.01167851056971</v>
+        <v>326.8610828129967</v>
       </c>
       <c r="G43" t="n">
-        <v>64.69654750984893</v>
+        <v>158.4334180525681</v>
       </c>
       <c r="H43" t="n">
-        <v>59.14751343128459</v>
+        <v>152.8843839740038</v>
       </c>
       <c r="I43" t="n">
         <v>59.14751343128459</v>
@@ -7600,19 +7600,19 @@
         <v>1080.60138472706</v>
       </c>
       <c r="U43" t="n">
-        <v>938.5715155323126</v>
+        <v>791.4589817726047</v>
       </c>
       <c r="V43" t="n">
-        <v>830.9995610861334</v>
+        <v>683.8870273264256</v>
       </c>
       <c r="W43" t="n">
-        <v>688.6949248088806</v>
+        <v>541.5823910491728</v>
       </c>
       <c r="X43" t="n">
-        <v>607.8179076705711</v>
+        <v>460.7053739108632</v>
       </c>
       <c r="Y43" t="n">
-        <v>534.1378622867488</v>
+        <v>387.0253285270409</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1204.238717623145</v>
       </c>
       <c r="D44" t="n">
-        <v>993.0855527761016</v>
+        <v>993.0855527761025</v>
       </c>
       <c r="E44" t="n">
-        <v>754.4098339375652</v>
+        <v>754.4098339375664</v>
       </c>
       <c r="F44" t="n">
-        <v>490.5364629076654</v>
+        <v>490.5364629076666</v>
       </c>
       <c r="G44" t="n">
         <v>220.9606665217257</v>
@@ -7649,25 +7649,25 @@
         <v>275.8091558671467</v>
       </c>
       <c r="K44" t="n">
-        <v>655.8783885050458</v>
+        <v>408.172900484858</v>
       </c>
       <c r="L44" t="n">
-        <v>856.9890799641915</v>
+        <v>609.2835919440038</v>
       </c>
       <c r="M44" t="n">
-        <v>1524.508570547397</v>
+        <v>1256.856893230429</v>
       </c>
       <c r="N44" t="n">
-        <v>2192.028061130603</v>
+        <v>1521.047881436573</v>
       </c>
       <c r="O44" t="n">
-        <v>2428.160858471796</v>
+        <v>2134.172858227884</v>
       </c>
       <c r="P44" t="n">
-        <v>2595.193737018203</v>
+        <v>2619.786457864059</v>
       </c>
       <c r="Q44" t="n">
-        <v>2672.455725954974</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="R44" t="n">
         <v>2697.04844680083</v>
@@ -7734,10 +7734,10 @@
         <v>1105.488028843562</v>
       </c>
       <c r="M45" t="n">
-        <v>1338.060873910827</v>
+        <v>1424.626209428958</v>
       </c>
       <c r="N45" t="n">
-        <v>1591.197875060671</v>
+        <v>1677.763210578802</v>
       </c>
       <c r="O45" t="n">
         <v>1887.114317104853</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>106.4334486588141</v>
+        <v>499.6019312162169</v>
       </c>
       <c r="C46" t="n">
-        <v>84.60979949061496</v>
+        <v>477.7782820480178</v>
       </c>
       <c r="D46" t="n">
-        <v>81.60569383798703</v>
+        <v>327.6616426356821</v>
       </c>
       <c r="E46" t="n">
-        <v>80.80513401530172</v>
+        <v>326.8610828129968</v>
       </c>
       <c r="F46" t="n">
-        <v>80.80513401530172</v>
+        <v>227.9176677750095</v>
       </c>
       <c r="G46" t="n">
-        <v>59.49000301458094</v>
+        <v>206.6025367742888</v>
       </c>
       <c r="H46" t="n">
         <v>53.94096893601661</v>
@@ -7840,16 +7840,16 @@
         <v>938.5715155323126</v>
       </c>
       <c r="V46" t="n">
-        <v>683.8870273264257</v>
+        <v>830.9995610861334</v>
       </c>
       <c r="W46" t="n">
-        <v>394.4698572894651</v>
+        <v>688.6949248088806</v>
       </c>
       <c r="X46" t="n">
-        <v>214.6494251131683</v>
+        <v>607.8179076705711</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.969379729346</v>
+        <v>534.1378622867488</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8696,16 +8696,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>325.5939698640775</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>180.8205403740207</v>
+        <v>345.1000650488708</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>1.021828804629791</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8766,22 +8766,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>135.0846784858628</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>327.9241016057887</v>
       </c>
       <c r="O12" t="n">
-        <v>372.1522779934577</v>
+        <v>305.4038902139415</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8930,10 +8930,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>380.475929576191</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>10.31289705805318</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>203.3149681418701</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,16 +9012,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>179.3128548735322</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>327.9241016057885</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>372.1522779934579</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>135.0846784858634</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9164,10 +9164,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>205.6616725415522</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>380.475929576191</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>122.1433189693133</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>81.08714685850478</v>
       </c>
       <c r="L18" t="n">
-        <v>188.7741878393834</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>372.1522779934579</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>180.8205403740208</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9410,19 +9410,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>316.7584581145763</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>345.1000650488708</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>247.013463381567</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,16 +9483,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>348.6959764366763</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>104.5434484152863</v>
       </c>
       <c r="O21" t="n">
-        <v>82.39907954850281</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9644,10 +9644,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>371.9499590028348</v>
+        <v>371.9499590028349</v>
       </c>
       <c r="N23" t="n">
-        <v>229.5776914955202</v>
+        <v>229.5776914955208</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.87528770545094</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>211.5621175686715</v>
+        <v>1.484829832822811</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9884,13 +9884,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>146.2773311082957</v>
+        <v>259.478842949116</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9957,22 +9957,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>41.77269643228826</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>87.43973284659597</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>273.9921564296468</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>228.3846565366408</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,16 +10194,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>64.41775887332599</v>
       </c>
       <c r="O30" t="n">
-        <v>87.43973284659597</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10349,16 +10349,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>355.3413493280829</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>36.79361359671974</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>87.43973284659614</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>87.43973284659597</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10586,28 +10586,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>416.2380394030981</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>123.496392478965</v>
       </c>
       <c r="P35" t="n">
-        <v>144.5676450994611</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>328.8829958859048</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>87.43973284659648</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>53.08644283676028</v>
+        <v>73.33043113720416</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>416.238039403098</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>407.4025276535971</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,25 +10902,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>439.3400459756971</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>409.4963045273462</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>29.74573664612467</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>146.914349499145</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>10.24279542035326</v>
       </c>
       <c r="R41" t="n">
-        <v>40.87528770545097</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>439.3400459756971</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>418.5681711448095</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>87.43973284659648</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>125.6058704815936</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,28 +11297,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>250.2075636567553</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>416.2380394030984</v>
+        <v>396.0903734467545</v>
       </c>
       <c r="N44" t="n">
-        <v>407.4025276535971</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,13 +11382,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>87.4397328465966</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>87.43973284659648</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>49.3905930834158</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>275.251830393576</v>
       </c>
       <c r="E11" t="n">
-        <v>65.38168049787588</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F11" t="n">
-        <v>327.4448345146045</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>333.0902356170841</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>231.5596978048558</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23.81896975173341</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>171.6919384270541</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>248.321047243028</v>
       </c>
       <c r="W11" t="n">
-        <v>269.809757490306</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.8067274289466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>275.2518303935761</v>
       </c>
       <c r="E14" t="n">
-        <v>302.4991588451547</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>191.6033825189665</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>231.5596978048559</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.21019719500384</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>131.4895384249675</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>171.6919384270541</v>
       </c>
       <c r="V14" t="n">
-        <v>248.3210472430279</v>
+        <v>136.0301438519994</v>
       </c>
       <c r="W14" t="n">
-        <v>269.809757490306</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>290.299889451362</v>
+        <v>290.2998894513622</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>179.8983226496892</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>179.8983226496882</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>179.8983226496899</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24023,13 +24023,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>92.26072719994713</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>87.63759544974334</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>450601.9862943711</v>
       </c>
       <c r="C2" t="n">
+        <v>450601.9862943712</v>
+      </c>
+      <c r="D2" t="n">
         <v>450601.9862943711</v>
       </c>
-      <c r="D2" t="n">
-        <v>450601.986294371</v>
-      </c>
       <c r="E2" t="n">
-        <v>394548.0683730285</v>
+        <v>394548.0683730284</v>
       </c>
       <c r="F2" t="n">
-        <v>394548.068373028</v>
+        <v>394548.0683730279</v>
       </c>
       <c r="G2" t="n">
         <v>443697.0248597524</v>
       </c>
       <c r="H2" t="n">
-        <v>443697.0248597523</v>
+        <v>443697.0248597522</v>
       </c>
       <c r="I2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="J2" t="n">
         <v>451572.9734253554</v>
       </c>
       <c r="K2" t="n">
-        <v>451572.9734253553</v>
+        <v>451572.9734253554</v>
       </c>
       <c r="L2" t="n">
         <v>451572.973425355</v>
       </c>
       <c r="M2" t="n">
+        <v>451572.9734253555</v>
+      </c>
+      <c r="N2" t="n">
         <v>451572.9734253553</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>451572.9734253555</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>451572.9734253554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>451572.9734253555</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>793631.6724150429</v>
+        <v>793631.672415043</v>
       </c>
       <c r="F3" t="n">
-        <v>4.80213202536106e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63544.96898168553</v>
+        <v>63544.96898168559</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>12327.03098776751</v>
       </c>
       <c r="J3" t="n">
-        <v>75688.1800532311</v>
+        <v>75688.18005323113</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63544.9689816856</v>
+        <v>63544.96898168557</v>
       </c>
       <c r="M3" t="n">
         <v>137355.3289379699</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-11</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26442,7 +26442,7 @@
         <v>194191.118073848</v>
       </c>
       <c r="K4" t="n">
-        <v>194191.118073848</v>
+        <v>194191.1180738481</v>
       </c>
       <c r="L4" t="n">
         <v>194191.118073848</v>
@@ -26451,7 +26451,7 @@
         <v>204259.4638285999</v>
       </c>
       <c r="N4" t="n">
-        <v>204259.4638285999</v>
+        <v>204259.4638286</v>
       </c>
       <c r="O4" t="n">
         <v>204259.4638286</v>
@@ -26479,7 +26479,7 @@
         <v>57243.92344591295</v>
       </c>
       <c r="F5" t="n">
-        <v>57243.92344591296</v>
+        <v>57243.92344591295</v>
       </c>
       <c r="G5" t="n">
         <v>63921.62594256461</v>
@@ -26491,16 +26491,16 @@
         <v>66740.07008220107</v>
       </c>
       <c r="J5" t="n">
-        <v>77650.54597770229</v>
+        <v>77650.54597770231</v>
       </c>
       <c r="K5" t="n">
-        <v>77650.54597770229</v>
+        <v>77650.54597770231</v>
       </c>
       <c r="L5" t="n">
         <v>77650.54597770231</v>
       </c>
       <c r="M5" t="n">
-        <v>68321.30794187219</v>
+        <v>68321.30794187218</v>
       </c>
       <c r="N5" t="n">
         <v>68321.30794187219</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19299.49342487708</v>
+        <v>-19303.90700274513</v>
       </c>
       <c r="C6" t="n">
-        <v>-19299.49342487702</v>
+        <v>-19303.90700274508</v>
       </c>
       <c r="D6" t="n">
-        <v>-19299.49342487714</v>
+        <v>-19303.90700274513</v>
       </c>
       <c r="E6" t="n">
-        <v>-606919.3297057117</v>
+        <v>-607178.5338195862</v>
       </c>
       <c r="F6" t="n">
-        <v>186712.3427093307</v>
+        <v>186453.1385954565</v>
       </c>
       <c r="G6" t="n">
-        <v>114828.397308281</v>
+        <v>114792.5975420737</v>
       </c>
       <c r="H6" t="n">
-        <v>178373.3662899663</v>
+        <v>178337.566523759</v>
       </c>
       <c r="I6" t="n">
-        <v>165906.7648817259</v>
+        <v>165906.764881726</v>
       </c>
       <c r="J6" t="n">
         <v>104043.129320574</v>
       </c>
       <c r="K6" t="n">
-        <v>179731.3093738051</v>
+        <v>179731.309373805</v>
       </c>
       <c r="L6" t="n">
-        <v>116186.3403921191</v>
+        <v>116186.340392119</v>
       </c>
       <c r="M6" t="n">
-        <v>41636.87271691338</v>
+        <v>41636.87271691354</v>
       </c>
       <c r="N6" t="n">
-        <v>178992.2016548835</v>
+        <v>178992.2016548832</v>
       </c>
       <c r="O6" t="n">
+        <v>178992.2016548834</v>
+      </c>
+      <c r="P6" t="n">
         <v>178992.2016548833</v>
-      </c>
-      <c r="P6" t="n">
-        <v>178992.2016548834</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F2" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="G2" t="n">
         <v>158.8624224542139</v>
@@ -26707,13 +26707,13 @@
         <v>158.8624224542139</v>
       </c>
       <c r="J2" t="n">
+        <v>79.43121122710693</v>
+      </c>
+      <c r="K2" t="n">
         <v>79.43121122710699</v>
       </c>
-      <c r="K2" t="n">
-        <v>79.43121122710693</v>
-      </c>
       <c r="L2" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="M2" t="n">
         <v>145.6414084221107</v>
@@ -26744,34 +26744,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="F3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="G3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="H3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="I3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="J3" t="n">
         <v>691.8460543973007</v>
       </c>
       <c r="K3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="L3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="M3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="N3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="O3" t="n">
         <v>691.8460543973006</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6180421611866</v>
+        <v>583.6180421611867</v>
       </c>
       <c r="F4" t="n">
-        <v>583.6180421611866</v>
+        <v>583.6180421611867</v>
       </c>
       <c r="G4" t="n">
-        <v>583.6180421611866</v>
+        <v>583.6180421611867</v>
       </c>
       <c r="H4" t="n">
-        <v>583.6180421611866</v>
+        <v>583.6180421611867</v>
       </c>
       <c r="I4" t="n">
-        <v>629.974031299944</v>
+        <v>629.9740312999442</v>
       </c>
       <c r="J4" t="n">
-        <v>919.2532811708797</v>
+        <v>919.25328117088</v>
       </c>
       <c r="K4" t="n">
-        <v>919.2532811708797</v>
+        <v>919.25328117088</v>
       </c>
       <c r="L4" t="n">
-        <v>919.2532811708797</v>
+        <v>919.25328117088</v>
       </c>
       <c r="M4" t="n">
         <v>674.2621117002074</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2621117002072</v>
+        <v>674.2621117002076</v>
       </c>
       <c r="O4" t="n">
         <v>674.2621117002076</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.431211227107</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="M2" t="n">
-        <v>66.21019719500367</v>
+        <v>66.21019719500373</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>2.842170943040401e-14</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6180421611866</v>
+        <v>583.6180421611867</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>46.35598913875742</v>
       </c>
       <c r="J4" t="n">
-        <v>289.2792498709357</v>
+        <v>289.2792498709358</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>338.6268726905142</v>
+        <v>338.6268726905141</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="K2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>583.6180421611866</v>
+        <v>583.6180421611867</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="12">
@@ -28172,22 +28172,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>79.43121122710697</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>25.84908941216892</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>79.43121122710697</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>25.84908941216863</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28220,16 +28220,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="K13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="L13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="M13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="N13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="O13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="P13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="R13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="S13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="C14" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="D14" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="E14" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="F14" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="G14" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="H14" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="I14" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="T14" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="U14" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="V14" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="W14" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="X14" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
     </row>
     <row r="15">
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="I15" t="n">
         <v>38.16086372859611</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28463,16 +28463,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>67.11943691067952</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>79.43121122710703</v>
+        <v>59.35568526792485</v>
       </c>
       <c r="X15" t="n">
-        <v>79.43121122710703</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>79.43121122710687</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="C16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="D16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="E16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="F16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="G16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="H16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="I16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="J16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="K16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="L16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710872</v>
       </c>
       <c r="M16" t="n">
-        <v>79.43121122710502</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="N16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="O16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="P16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="R16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="S16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="T16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="U16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="V16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="W16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="X16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710687</v>
       </c>
     </row>
     <row r="17">
@@ -28640,13 +28640,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.416979155447734</v>
+        <v>70.7730421574997</v>
       </c>
       <c r="C18" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28658,10 +28658,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.863321483828</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28719,16 +28719,16 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
         <v>158.8624224542139</v>
       </c>
-      <c r="C19" t="n">
-        <v>44.40190978580023</v>
-      </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -28737,13 +28737,13 @@
         <v>158.8624224542139</v>
       </c>
       <c r="H19" t="n">
-        <v>151.1349521598894</v>
+        <v>59.34984873512327</v>
       </c>
       <c r="I19" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J19" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>158.8624224542139</v>
       </c>
       <c r="X19" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>158.8624224542139</v>
@@ -28886,7 +28886,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.763751642754528</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>144.0419631757947</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>74.17614454634406</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28943,7 +28943,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>68.3367789094923</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28959,19 +28959,19 @@
         <v>158.8624224542139</v>
       </c>
       <c r="C22" t="n">
-        <v>68.62580553072681</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>92.3141293980122</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>151.1349521598894</v>
@@ -28980,7 +28980,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J22" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29022,7 +29022,7 @@
         <v>158.8624224542139</v>
       </c>
       <c r="X22" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>158.8624224542139</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>84.24440044379988</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.763751642754528</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>76.48064880104512</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29196,16 +29196,16 @@
         <v>158.8624224542139</v>
       </c>
       <c r="C25" t="n">
-        <v>73.78028458104208</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>158.8624224542139</v>
@@ -29214,7 +29214,7 @@
         <v>151.1349521598894</v>
       </c>
       <c r="I25" t="n">
-        <v>117.9320036494506</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29244,19 +29244,19 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S25" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>158.8624224542139</v>
       </c>
       <c r="U25" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>158.8624224542139</v>
       </c>
       <c r="W25" t="n">
-        <v>158.8624224542139</v>
+        <v>68.96664945120855</v>
       </c>
       <c r="X25" t="n">
         <v>158.8624224542139</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="C26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="D26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="E26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="G26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="H26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="I26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="U26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="V26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="W26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="X26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="C28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="D28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="E28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="G28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="H28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="I28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="J28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="K28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="L28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="M28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="N28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="O28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="P28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="R28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="S28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="U28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="V28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="W28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="X28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710693</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="C29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="D29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="E29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="F29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="G29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="H29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="I29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="T29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="U29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="V29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="W29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="X29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="C31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="D31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="E31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="F31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="G31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="H31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="I31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="J31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="K31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="L31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="M31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="N31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="O31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="P31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="R31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="S31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="T31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="U31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="V31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="W31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="X31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710699</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="D32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="X32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="D34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="J34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="K34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="L34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="M34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.4312112271071</v>
       </c>
       <c r="N34" t="n">
-        <v>79.43121122710508</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="O34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="P34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="R34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="S34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="X34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="35">
@@ -30144,7 +30144,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="C37" t="n">
-        <v>52.84190658481897</v>
+        <v>23.24317139039783</v>
       </c>
       <c r="D37" t="n">
         <v>145.6414084221107</v>
@@ -30159,13 +30159,13 @@
         <v>145.6414084221107</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="I37" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,10 +30189,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="T37" t="n">
         <v>145.6414084221107</v>
@@ -30201,7 +30201,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="V37" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>145.6414084221107</v>
@@ -30393,16 +30393,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="I40" t="n">
-        <v>117.9320036494506</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>23.24317139039736</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S40" t="n">
         <v>145.6414084221107</v>
@@ -30441,10 +30441,10 @@
         <v>145.6414084221107</v>
       </c>
       <c r="W40" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>145.6414084221107</v>
+        <v>19.97802276184359</v>
       </c>
       <c r="Y40" t="n">
         <v>145.6414084221107</v>
@@ -30618,25 +30618,25 @@
         <v>145.6414084221107</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="E43" t="n">
-        <v>52.8419065848186</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="I43" t="n">
-        <v>117.9320036494506</v>
+        <v>25.13250181215858</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30672,7 +30672,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="U43" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>145.6414084221107</v>
@@ -30858,19 +30858,19 @@
         <v>145.6414084221107</v>
       </c>
       <c r="D46" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.46706713532384</v>
       </c>
       <c r="G46" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="H46" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>117.9320036494506</v>
@@ -30912,13 +30912,13 @@
         <v>145.6414084221107</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="X46" t="n">
-        <v>47.68742753450329</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="Y46" t="n">
         <v>145.6414084221107</v>
@@ -31753,46 +31753,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H11" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I11" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J11" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K11" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L11" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M11" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N11" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O11" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P11" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q11" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R11" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S11" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T11" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,7 +31832,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H12" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I12" t="n">
         <v>51.23576912281897</v>
@@ -31841,7 +31841,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K12" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L12" t="n">
         <v>323.1116879522488</v>
@@ -31859,19 +31859,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q12" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R12" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S12" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T12" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,22 +31914,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I13" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J13" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K13" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L13" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M13" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N13" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O13" t="n">
         <v>176.341351701135</v>
@@ -31941,16 +31941,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R13" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S13" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T13" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,46 +31990,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H14" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I14" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J14" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K14" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L14" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M14" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N14" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O14" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P14" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q14" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R14" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S14" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T14" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,7 +32069,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H15" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I15" t="n">
         <v>51.23576912281897</v>
@@ -32078,7 +32078,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K15" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L15" t="n">
         <v>323.1116879522488</v>
@@ -32096,19 +32096,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q15" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R15" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S15" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T15" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,22 +32151,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I16" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J16" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K16" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L16" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M16" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N16" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O16" t="n">
         <v>176.341351701135</v>
@@ -32178,16 +32178,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R16" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S16" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T16" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,46 +32227,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H17" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I17" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J17" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K17" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L17" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M17" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N17" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O17" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P17" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q17" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R17" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S17" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T17" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,7 +32306,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H18" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I18" t="n">
         <v>51.23576912281897</v>
@@ -32315,7 +32315,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K18" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L18" t="n">
         <v>323.1116879522488</v>
@@ -32333,19 +32333,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q18" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R18" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S18" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T18" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,22 +32388,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I19" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J19" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K19" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L19" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M19" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N19" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O19" t="n">
         <v>176.341351701135</v>
@@ -32415,16 +32415,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R19" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S19" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T19" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,46 +32464,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H20" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I20" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J20" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K20" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L20" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M20" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N20" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O20" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P20" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q20" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R20" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S20" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T20" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,7 +32543,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H21" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I21" t="n">
         <v>51.23576912281897</v>
@@ -32552,7 +32552,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K21" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L21" t="n">
         <v>323.1116879522488</v>
@@ -32570,19 +32570,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q21" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R21" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S21" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T21" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,22 +32625,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I22" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J22" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K22" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L22" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M22" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N22" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O22" t="n">
         <v>176.341351701135</v>
@@ -32652,16 +32652,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R22" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S22" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T22" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,46 +32701,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H23" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I23" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J23" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K23" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L23" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M23" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N23" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O23" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P23" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q23" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R23" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S23" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T23" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,7 +32780,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H24" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I24" t="n">
         <v>51.23576912281897</v>
@@ -32789,7 +32789,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K24" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L24" t="n">
         <v>323.1116879522488</v>
@@ -32807,19 +32807,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q24" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R24" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S24" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T24" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,22 +32862,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I25" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J25" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K25" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L25" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M25" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N25" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O25" t="n">
         <v>176.341351701135</v>
@@ -32889,16 +32889,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R25" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S25" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T25" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33175,46 +33175,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H29" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I29" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J29" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K29" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L29" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M29" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N29" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O29" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P29" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q29" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R29" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S29" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T29" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,7 +33254,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H30" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I30" t="n">
         <v>51.23576912281897</v>
@@ -33263,7 +33263,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K30" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L30" t="n">
         <v>323.1116879522488</v>
@@ -33281,19 +33281,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q30" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R30" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S30" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T30" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,22 +33336,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I31" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J31" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K31" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L31" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M31" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N31" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O31" t="n">
         <v>176.341351701135</v>
@@ -33363,16 +33363,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R31" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S31" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T31" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,46 +33412,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H32" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I32" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J32" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K32" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L32" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M32" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N32" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O32" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P32" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q32" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R32" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S32" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T32" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,7 +33491,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H33" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I33" t="n">
         <v>51.23576912281897</v>
@@ -33500,7 +33500,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K33" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L33" t="n">
         <v>323.1116879522488</v>
@@ -33518,19 +33518,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q33" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R33" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S33" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T33" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,22 +33573,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I34" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J34" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K34" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L34" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M34" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N34" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O34" t="n">
         <v>176.341351701135</v>
@@ -33600,16 +33600,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R34" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S34" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T34" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,46 +33649,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H35" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I35" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J35" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K35" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L35" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M35" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N35" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O35" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P35" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q35" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R35" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S35" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T35" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,7 +33728,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H36" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I36" t="n">
         <v>51.23576912281897</v>
@@ -33737,7 +33737,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K36" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L36" t="n">
         <v>323.1116879522488</v>
@@ -33755,19 +33755,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q36" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R36" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S36" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T36" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,22 +33810,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I37" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J37" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K37" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L37" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M37" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N37" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O37" t="n">
         <v>176.341351701135</v>
@@ -33837,16 +33837,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R37" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S37" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T37" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,46 +33886,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H38" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I38" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J38" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K38" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L38" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M38" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N38" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O38" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P38" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q38" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R38" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S38" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T38" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,7 +33965,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H39" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I39" t="n">
         <v>51.23576912281897</v>
@@ -33974,7 +33974,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K39" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L39" t="n">
         <v>323.1116879522488</v>
@@ -33992,19 +33992,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q39" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R39" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S39" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T39" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,22 +34047,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I40" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J40" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K40" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L40" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M40" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N40" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O40" t="n">
         <v>176.341351701135</v>
@@ -34074,16 +34074,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R40" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S40" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T40" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634044</v>
       </c>
       <c r="K11" t="n">
-        <v>133.7007521391024</v>
+        <v>133.7007521391023</v>
       </c>
       <c r="L11" t="n">
-        <v>203.1421125849959</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M11" t="n">
-        <v>258.0240722971092</v>
+        <v>583.6180421611867</v>
       </c>
       <c r="N11" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O11" t="n">
-        <v>419.3385174863367</v>
+        <v>583.6180421611867</v>
       </c>
       <c r="P11" t="n">
-        <v>490.5187875112878</v>
+        <v>169.7419081444349</v>
       </c>
       <c r="Q11" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R11" t="n">
-        <v>24.8411321675315</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>139.8482752564993</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K12" t="n">
         <v>366.9228186490254</v>
       </c>
       <c r="L12" t="n">
-        <v>319.6419866582374</v>
+        <v>184.5573081723746</v>
       </c>
       <c r="M12" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N12" t="n">
-        <v>255.6939405553981</v>
+        <v>583.6180421611867</v>
       </c>
       <c r="O12" t="n">
-        <v>583.6180421611866</v>
+        <v>516.8696543816703</v>
       </c>
       <c r="P12" t="n">
-        <v>150.1915691550064</v>
+        <v>150.1915691550063</v>
       </c>
       <c r="Q12" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.27673217679168</v>
+        <v>74.27673217679164</v>
       </c>
       <c r="K13" t="n">
-        <v>202.1091386667569</v>
+        <v>202.1091386667568</v>
       </c>
       <c r="L13" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974797</v>
       </c>
       <c r="M13" t="n">
-        <v>314.5806868114501</v>
+        <v>314.58068681145</v>
       </c>
       <c r="N13" t="n">
         <v>314.4788694042006</v>
@@ -35583,10 +35583,10 @@
         <v>280.3576908422816</v>
       </c>
       <c r="P13" t="n">
-        <v>227.600260782192</v>
+        <v>227.6002607821919</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.73792218940498</v>
+        <v>97.73792218940494</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>224.1092797284143</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K14" t="n">
         <v>457.8461647102671</v>
       </c>
       <c r="L14" t="n">
-        <v>203.1421125849959</v>
+        <v>583.6180421611867</v>
       </c>
       <c r="M14" t="n">
-        <v>258.0240722971092</v>
+        <v>268.3369693551624</v>
       </c>
       <c r="N14" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O14" t="n">
-        <v>238.5179771123161</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P14" t="n">
-        <v>372.0350474816753</v>
+        <v>168.7200793398051</v>
       </c>
       <c r="Q14" t="n">
-        <v>290.3574037273507</v>
+        <v>78.04241306744595</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K15" t="n">
         <v>366.9228186490254</v>
@@ -35732,19 +35732,19 @@
         <v>184.5573081723746</v>
       </c>
       <c r="M15" t="n">
-        <v>414.2349205980427</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6180421611866</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O15" t="n">
-        <v>211.4657641677289</v>
+        <v>583.6180421611867</v>
       </c>
       <c r="P15" t="n">
-        <v>150.1915691550064</v>
+        <v>285.2762476408697</v>
       </c>
       <c r="Q15" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.27673217679174</v>
+        <v>74.27673217679157</v>
       </c>
       <c r="K16" t="n">
-        <v>202.109138666757</v>
+        <v>202.1091386667568</v>
       </c>
       <c r="L16" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974815</v>
       </c>
       <c r="M16" t="n">
-        <v>314.5806868114481</v>
+        <v>314.5806868114499</v>
       </c>
       <c r="N16" t="n">
-        <v>314.4788694042007</v>
+        <v>314.4788694042005</v>
       </c>
       <c r="O16" t="n">
-        <v>280.3576908422817</v>
+        <v>280.3576908422815</v>
       </c>
       <c r="P16" t="n">
-        <v>227.600260782192</v>
+        <v>227.6002607821919</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.73792218940504</v>
+        <v>97.73792218940487</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>224.1092797284143</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K17" t="n">
-        <v>339.3624246806546</v>
+        <v>133.7007521391023</v>
       </c>
       <c r="L17" t="n">
-        <v>203.1421125849959</v>
+        <v>583.6180421611867</v>
       </c>
       <c r="M17" t="n">
         <v>258.0240722971092</v>
       </c>
       <c r="N17" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O17" t="n">
-        <v>238.5179771123161</v>
+        <v>360.6612960816293</v>
       </c>
       <c r="P17" t="n">
-        <v>490.5187875112878</v>
+        <v>168.7200793398051</v>
       </c>
       <c r="Q17" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K18" t="n">
-        <v>366.9228186490254</v>
+        <v>183.5447284949516</v>
       </c>
       <c r="L18" t="n">
-        <v>373.3314960117581</v>
+        <v>184.5573081723746</v>
       </c>
       <c r="M18" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N18" t="n">
         <v>255.6939405553981</v>
       </c>
       <c r="O18" t="n">
-        <v>211.4657641677289</v>
+        <v>583.6180421611867</v>
       </c>
       <c r="P18" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q18" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,16 +36051,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N19" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O19" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P19" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634044</v>
       </c>
       <c r="K20" t="n">
-        <v>314.5212925131232</v>
+        <v>133.7007521391023</v>
       </c>
       <c r="L20" t="n">
-        <v>203.1421125849959</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M20" t="n">
         <v>258.0240722971092</v>
       </c>
       <c r="N20" t="n">
-        <v>266.8595840466106</v>
+        <v>583.6180421611867</v>
       </c>
       <c r="O20" t="n">
-        <v>238.5179771123161</v>
+        <v>583.6180421611867</v>
       </c>
       <c r="P20" t="n">
-        <v>490.5187875112878</v>
+        <v>415.7335427213721</v>
       </c>
       <c r="Q20" t="n">
-        <v>290.3574037273507</v>
+        <v>78.04241306744595</v>
       </c>
       <c r="R20" t="n">
-        <v>24.8411321675315</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K21" t="n">
-        <v>102.4575816364469</v>
+        <v>102.4575816364468</v>
       </c>
       <c r="L21" t="n">
-        <v>555.3976534758337</v>
+        <v>184.5573081723746</v>
       </c>
       <c r="M21" t="n">
-        <v>234.9220657245105</v>
+        <v>583.6180421611867</v>
       </c>
       <c r="N21" t="n">
-        <v>255.6939405553981</v>
+        <v>360.2373889706844</v>
       </c>
       <c r="O21" t="n">
-        <v>293.8648437162317</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P21" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q21" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36288,16 +36288,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N22" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O22" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P22" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>224.1092797284143</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K23" t="n">
-        <v>133.7007521391024</v>
+        <v>133.7007521391023</v>
       </c>
       <c r="L23" t="n">
-        <v>203.1421125849959</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M23" t="n">
-        <v>629.974031299944</v>
+        <v>629.9740312999442</v>
       </c>
       <c r="N23" t="n">
-        <v>496.4372755421308</v>
+        <v>496.4372755421313</v>
       </c>
       <c r="O23" t="n">
-        <v>238.5179771123161</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P23" t="n">
         <v>490.5187875112878</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.04241306744601</v>
+        <v>78.04241306744595</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K24" t="n">
         <v>366.9228186490254</v>
@@ -36443,19 +36443,19 @@
         <v>555.3976534758337</v>
       </c>
       <c r="M24" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N24" t="n">
         <v>255.6939405553981</v>
       </c>
       <c r="O24" t="n">
-        <v>423.0278817364003</v>
+        <v>212.9505940005516</v>
       </c>
       <c r="P24" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q24" t="n">
-        <v>49.97565579302605</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36525,16 +36525,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N25" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O25" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P25" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K26" t="n">
-        <v>133.7007521391024</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L26" t="n">
         <v>620.8033271354464</v>
@@ -36604,13 +36604,13 @@
         <v>707.5376057899417</v>
       </c>
       <c r="N26" t="n">
-        <v>704.2065084585947</v>
+        <v>266.8595840466106</v>
       </c>
       <c r="O26" t="n">
         <v>619.3181583750614</v>
       </c>
       <c r="P26" t="n">
-        <v>314.9974104481009</v>
+        <v>428.1989222889212</v>
       </c>
       <c r="Q26" t="n">
         <v>290.3574037273507</v>
@@ -36677,22 +36677,22 @@
         <v>366.9228186490254</v>
       </c>
       <c r="L27" t="n">
-        <v>226.3300046046629</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M27" t="n">
-        <v>700.6271294745104</v>
+        <v>234.9220657245105</v>
       </c>
       <c r="N27" t="n">
-        <v>735.0363148989517</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O27" t="n">
-        <v>211.4657641677289</v>
+        <v>298.9054970143249</v>
       </c>
       <c r="P27" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q27" t="n">
-        <v>49.97565579302605</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.2767321767917</v>
+        <v>74.27673217679164</v>
       </c>
       <c r="K28" t="n">
-        <v>202.1091386667569</v>
+        <v>202.1091386667568</v>
       </c>
       <c r="L28" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974797</v>
       </c>
       <c r="M28" t="n">
         <v>314.5806868114501</v>
@@ -36771,7 +36771,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.737922189405</v>
+        <v>97.73792218940494</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>55.0126645563405</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K29" t="n">
-        <v>457.8461647102671</v>
+        <v>407.6929085687491</v>
       </c>
       <c r="L29" t="n">
-        <v>620.8033271354464</v>
+        <v>620.8033271354461</v>
       </c>
       <c r="M29" t="n">
-        <v>707.5376057899417</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N29" t="n">
-        <v>704.2065084585947</v>
+        <v>704.2065084585946</v>
       </c>
       <c r="O29" t="n">
-        <v>619.3181583750614</v>
+        <v>619.3181583750613</v>
       </c>
       <c r="P29" t="n">
-        <v>397.104735876446</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.04241306744601</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K30" t="n">
         <v>366.9228186490254</v>
       </c>
       <c r="L30" t="n">
-        <v>555.3976534758337</v>
+        <v>184.5573081723746</v>
       </c>
       <c r="M30" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N30" t="n">
-        <v>255.6939405553981</v>
+        <v>320.1116994287241</v>
       </c>
       <c r="O30" t="n">
-        <v>298.9054970143249</v>
+        <v>605.3280834444583</v>
       </c>
       <c r="P30" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q30" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.27673217679164</v>
+        <v>74.27673217679168</v>
       </c>
       <c r="K31" t="n">
-        <v>202.1091386667568</v>
+        <v>202.1091386667569</v>
       </c>
       <c r="L31" t="n">
-        <v>292.5040294974797</v>
+        <v>292.5040294974798</v>
       </c>
       <c r="M31" t="n">
         <v>314.5806868114501</v>
@@ -37008,7 +37008,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.73792218940494</v>
+        <v>97.73792218940498</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>224.1092797284143</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K32" t="n">
-        <v>457.8461647102671</v>
+        <v>133.7007521391023</v>
       </c>
       <c r="L32" t="n">
-        <v>558.4834619130787</v>
+        <v>620.8033271354461</v>
       </c>
       <c r="M32" t="n">
         <v>707.5376057899417</v>
       </c>
       <c r="N32" t="n">
-        <v>266.8595840466106</v>
+        <v>704.2065084585946</v>
       </c>
       <c r="O32" t="n">
-        <v>619.3181583750614</v>
+        <v>619.3181583750613</v>
       </c>
       <c r="P32" t="n">
         <v>490.5187875112878</v>
       </c>
       <c r="Q32" t="n">
-        <v>290.3574037273507</v>
+        <v>114.8360266641657</v>
       </c>
       <c r="R32" t="n">
-        <v>24.8411321675315</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K33" t="n">
         <v>366.9228186490254</v>
@@ -37154,19 +37154,19 @@
         <v>555.3976534758337</v>
       </c>
       <c r="M33" t="n">
-        <v>234.9220657245105</v>
+        <v>322.3617985711066</v>
       </c>
       <c r="N33" t="n">
         <v>255.6939405553981</v>
       </c>
       <c r="O33" t="n">
-        <v>298.9054970143249</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P33" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q33" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.27673217679173</v>
+        <v>74.27673217679165</v>
       </c>
       <c r="K34" t="n">
         <v>202.1091386667569</v>
       </c>
       <c r="L34" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974797</v>
       </c>
       <c r="M34" t="n">
-        <v>314.5806868114501</v>
+        <v>314.5806868114502</v>
       </c>
       <c r="N34" t="n">
-        <v>314.4788694041987</v>
+        <v>314.4788694042006</v>
       </c>
       <c r="O34" t="n">
-        <v>280.3576908422817</v>
+        <v>280.3576908422816</v>
       </c>
       <c r="P34" t="n">
         <v>227.600260782192</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.73792218940503</v>
+        <v>97.73792218940496</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>224.1092797284143</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K35" t="n">
-        <v>457.8461647102671</v>
+        <v>133.7007521391023</v>
       </c>
       <c r="L35" t="n">
-        <v>620.8033271354464</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M35" t="n">
-        <v>258.0240722971092</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="N35" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O35" t="n">
-        <v>238.5179771123161</v>
+        <v>362.014369591281</v>
       </c>
       <c r="P35" t="n">
-        <v>313.2877244392662</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q35" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K36" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L36" t="n">
-        <v>184.5573081723746</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M36" t="n">
-        <v>563.8050616104154</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N36" t="n">
         <v>255.6939405553981</v>
       </c>
       <c r="O36" t="n">
-        <v>605.3280834444583</v>
+        <v>298.9054970143253</v>
       </c>
       <c r="P36" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q36" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,16 +37473,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N37" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O37" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P37" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>55.0126645563405</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K38" t="n">
-        <v>186.7871949758627</v>
+        <v>207.0311832763065</v>
       </c>
       <c r="L38" t="n">
-        <v>620.8033271354464</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M38" t="n">
-        <v>674.2621117002072</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N38" t="n">
-        <v>266.8595840466106</v>
+        <v>674.2621117002076</v>
       </c>
       <c r="O38" t="n">
-        <v>619.3181583750614</v>
+        <v>619.3181583750613</v>
       </c>
       <c r="P38" t="n">
-        <v>168.7200793398052</v>
+        <v>168.7200793398051</v>
       </c>
       <c r="Q38" t="n">
-        <v>78.04241306744601</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>13.75723991609044</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K39" t="n">
-        <v>366.9228186490254</v>
+        <v>102.4575816364468</v>
       </c>
       <c r="L39" t="n">
-        <v>555.3976534758337</v>
+        <v>184.5573081723746</v>
       </c>
       <c r="M39" t="n">
-        <v>234.9220657245105</v>
+        <v>674.2621117002076</v>
       </c>
       <c r="N39" t="n">
-        <v>255.6939405553981</v>
+        <v>665.1902450827442</v>
       </c>
       <c r="O39" t="n">
-        <v>605.3280834444583</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P39" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q39" t="n">
-        <v>79.72139243915072</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,16 +37710,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N40" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O40" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P40" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>224.1092797284142</v>
       </c>
       <c r="K41" t="n">
-        <v>133.7007521391023</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L41" t="n">
         <v>620.8033271354461</v>
@@ -37789,7 +37789,7 @@
         <v>258.0240722971092</v>
       </c>
       <c r="N41" t="n">
-        <v>413.7739335457554</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O41" t="n">
         <v>238.517977112316</v>
@@ -37798,10 +37798,10 @@
         <v>490.5187875112878</v>
       </c>
       <c r="Q41" t="n">
-        <v>290.3574037273506</v>
+        <v>88.28520848779921</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>13.75723991609041</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K42" t="n">
-        <v>102.4575816364468</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L42" t="n">
-        <v>184.5573081723746</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M42" t="n">
-        <v>674.2621117002076</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N42" t="n">
-        <v>674.2621117002076</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O42" t="n">
-        <v>605.3280834444583</v>
+        <v>298.9054970143253</v>
       </c>
       <c r="P42" t="n">
-        <v>150.1915691550063</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q42" t="n">
-        <v>175.5815262746196</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>224.1092797284142</v>
       </c>
       <c r="K44" t="n">
-        <v>383.9083157958577</v>
+        <v>133.7007521391023</v>
       </c>
       <c r="L44" t="n">
         <v>203.1421125849957</v>
       </c>
       <c r="M44" t="n">
-        <v>674.2621117002076</v>
+        <v>654.1144457438637</v>
       </c>
       <c r="N44" t="n">
-        <v>674.2621117002076</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O44" t="n">
-        <v>238.517977112316</v>
+        <v>619.3181583750613</v>
       </c>
       <c r="P44" t="n">
-        <v>168.7200793398051</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q44" t="n">
         <v>78.04241306744595</v>
       </c>
       <c r="R44" t="n">
-        <v>24.84113216753147</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>555.3976534758337</v>
       </c>
       <c r="M45" t="n">
-        <v>234.9220657245104</v>
+        <v>322.361798571107</v>
       </c>
       <c r="N45" t="n">
         <v>255.6939405553981</v>
       </c>
       <c r="O45" t="n">
-        <v>298.9054970143253</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P45" t="n">
         <v>468.6543377949435</v>
